--- a/PD2/PD2工数.xlsx
+++ b/PD2/PD2工数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timaz\Documents\PythonFile\PD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40931058-2967-4D97-9DFA-5F3C47E9CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF7D3C-E797-4F99-91CC-EE764FA2FA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0SHEET" sheetId="190" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>年</t>
   </si>
@@ -181,150 +181,6 @@
     <t>食事は固定158行まで追加</t>
   </si>
   <si>
-    <t>Kｶﾄﾞｶ ｼﾞｬﾑﾅ</t>
-  </si>
-  <si>
-    <t>Kｶﾙｷ ｶﾏﾗ</t>
-  </si>
-  <si>
-    <t>Kｽﾚｽﾀ ﾋﾞﾅﾑﾗﾀ</t>
-  </si>
-  <si>
-    <t>Rﾁｮｳﾃﾞﾘ ﾃｨｰﾊﾟ</t>
-  </si>
-  <si>
-    <t>ｽｽﾞｷ ｻﾕﾘ</t>
-  </si>
-  <si>
-    <t>Rﾀﾊﾟ ﾏｶﾞﾙ ﾌﾟﾅﾑ</t>
-  </si>
-  <si>
-    <t>Rｼﾘｽ ﾃﾞｨﾊﾟ</t>
-  </si>
-  <si>
-    <t>Rﾁｬｳﾀﾞﾘ ｻﾊﾟﾅ</t>
-  </si>
-  <si>
-    <t>Rﾋﾞｽﾀ ｿｳﾞｧ</t>
-  </si>
-  <si>
-    <t>Kﾀﾊﾟ ｷﾞﾘ ﾗﾀﾞ</t>
-  </si>
-  <si>
-    <t>Rﾗﾏ ﾗｼﾞﾅ</t>
-  </si>
-  <si>
-    <t>Rｶﾄﾞｶ ｼｰﾏ</t>
-  </si>
-  <si>
-    <t>ｱﾗﾔ ｴﾐｰ ｶﾃﾞｨｴﾝﾃ</t>
-  </si>
-  <si>
-    <t>Rﾈｳﾊﾟﾈ ｺﾞﾊﾟﾙ</t>
-  </si>
-  <si>
-    <t>Rﾃｨﾜﾘ ﾌﾟﾗｶｼｭ</t>
-  </si>
-  <si>
-    <t>Kﾌﾞﾀﾞ ｼﾞｭﾝ ｸﾏﾘ</t>
-  </si>
-  <si>
-    <t>Kﾗｲ ｶﾘｽﾏ</t>
-  </si>
-  <si>
-    <t>Rﾃｨﾐﾙｾﾅ ﾗｸｼｭﾐ</t>
-  </si>
-  <si>
-    <t>Rﾀﾊﾟ ｼﾞｪﾆｼｬ</t>
-  </si>
-  <si>
-    <t>Rﾋﾞｹ ｱﾙｼﾞｭﾝ</t>
-  </si>
-  <si>
-    <t>Rﾗﾅ ﾌﾟﾙﾅ</t>
-  </si>
-  <si>
-    <t>Rﾋﾞｹ ﾛｻﾆ</t>
-  </si>
-  <si>
-    <t>Rﾀﾊﾟ ｱｻ</t>
-  </si>
-  <si>
-    <t>Rﾏﾙﾗ ﾌﾟﾚﾏ</t>
-  </si>
-  <si>
-    <t>Rｽﾚｽﾀ ﾆﾙﾀ</t>
-  </si>
-  <si>
-    <t>Rｱﾃﾞｨｶﾘ ﾛｸ ﾗｽﾞ</t>
-  </si>
-  <si>
-    <t>Rﾈﾊﾟｰﾙ ｱﾙｼﾞｭﾝ</t>
-  </si>
-  <si>
-    <t>Rﾋﾞｽﾀｰ ｷｿﾙ</t>
-  </si>
-  <si>
-    <t>Rｽﾚｽﾀ ﾆｻ</t>
-  </si>
-  <si>
-    <t>Rﾀﾊﾟ ｲｽﾐﾚﾃ</t>
-  </si>
-  <si>
-    <t>Rﾌﾟﾝ ﾍﾏ ｸﾏﾘ</t>
-  </si>
-  <si>
-    <t>Rﾏｶﾞﾙ ｼﾏ ﾏﾔ</t>
-  </si>
-  <si>
-    <t>Rﾔｶ ﾎﾑ ﾏﾔ</t>
-  </si>
-  <si>
-    <t>Rｸﾞﾙﾝ ｻﾋﾞﾅ</t>
-  </si>
-  <si>
-    <t>Rﾊﾞﾗﾙ ｻﾝﾃﾞｨｱ</t>
-  </si>
-  <si>
-    <t>Rﾊﾞｯﾀ ﾃﾞｨﾍﾟｼｭ</t>
-  </si>
-  <si>
-    <t>Rｱﾁｬﾚ ﾎﾟｳﾃﾞﾙ ｱｽﾐ</t>
-  </si>
-  <si>
-    <t>Rﾀﾊﾟ ｶﾝﾁｪ</t>
-  </si>
-  <si>
-    <t>Kﾈｳﾊﾟﾈ ﾌﾞﾜﾝ</t>
-  </si>
-  <si>
-    <t>Rｻﾋ ﾍﾐ ｻﾗ</t>
-  </si>
-  <si>
-    <t>Rｶﾄﾘ ｽﾚｽﾀ ｱﾐﾀ</t>
-  </si>
-  <si>
-    <t>Kﾀﾞｶﾙ ｱﾁｬﾘﾔ ﾏﾗﾃｨ</t>
-  </si>
-  <si>
-    <t>Rｸﾞﾙﾝ ﾛｼﾞﾅ</t>
-  </si>
-  <si>
-    <t>Rﾁｬﾝﾃﾞｭ ﾌﾟｻﾞ</t>
-  </si>
-  <si>
-    <t>Rﾗﾏ ﾐﾅ ｸﾏﾘ</t>
-  </si>
-  <si>
-    <t>Rｷﾞｼﾝ ｻﾝｻﾞﾅ</t>
-  </si>
-  <si>
-    <t>Rﾗﾐｼｬﾝ ｸﾞﾙﾝ ﾚﾘﾅ</t>
-  </si>
-  <si>
-    <t>Rｶﾄﾘ ﾊﾞｻﾝﾃｨ ｸﾏﾘ</t>
-  </si>
-  <si>
     <t>プライムデリカ様　第二工場　　 (左：実働時間　　右：食事詳細）</t>
     <rPh sb="7" eb="8">
       <t>サマ</t>
@@ -430,150 +286,6 @@
     <t>実働時間</t>
   </si>
   <si>
-    <t>Ｋカドカ　ジャムナ</t>
-  </si>
-  <si>
-    <t>Ｋカルキ　カマラ</t>
-  </si>
-  <si>
-    <t>Ｋスレスタ　ビナムラタ</t>
-  </si>
-  <si>
-    <t>Ｒチョウデリ　ティーパ</t>
-  </si>
-  <si>
-    <t>スズキ　サユリ</t>
-  </si>
-  <si>
-    <t>Ｒタパ　マガル　プナム</t>
-  </si>
-  <si>
-    <t>Ｒシリス　ディパ</t>
-  </si>
-  <si>
-    <t>Ｒチャウダリ　サパナ</t>
-  </si>
-  <si>
-    <t>Ｒビスタ　ソウ゛ァ</t>
-  </si>
-  <si>
-    <t>Ｋタパ　ギリ　ラダ</t>
-  </si>
-  <si>
-    <t>Ｒラマ　ラジナ</t>
-  </si>
-  <si>
-    <t>Ｒカドカ　シーマ</t>
-  </si>
-  <si>
-    <t>アラヤ　エミー　カディエンテ</t>
-  </si>
-  <si>
-    <t>Ｒネウパネ　ゴパル</t>
-  </si>
-  <si>
-    <t>Ｒティワリ　プラカシュ</t>
-  </si>
-  <si>
-    <t>Ｋブダ　ジュン　クマリ</t>
-  </si>
-  <si>
-    <t>Ｋライ　カリスマ</t>
-  </si>
-  <si>
-    <t>Ｒティミルセナ　ラクシュミ</t>
-  </si>
-  <si>
-    <t>Ｒタパ　ジェニシャ</t>
-  </si>
-  <si>
-    <t>Ｒビケ　アルジュン</t>
-  </si>
-  <si>
-    <t>Ｒラナ　プルナ</t>
-  </si>
-  <si>
-    <t>Ｒビケ　ロサニ</t>
-  </si>
-  <si>
-    <t>Ｒタパ　アサ</t>
-  </si>
-  <si>
-    <t>Ｒマルラ　プレマ</t>
-  </si>
-  <si>
-    <t>Ｒスレスタ　ニルタ</t>
-  </si>
-  <si>
-    <t>Ｒアディカリ　ロク　ラズ</t>
-  </si>
-  <si>
-    <t>Ｒネパール　アルジュン</t>
-  </si>
-  <si>
-    <t>Ｒビスター　キソル</t>
-  </si>
-  <si>
-    <t>Ｒスレスタ　ニサ</t>
-  </si>
-  <si>
-    <t>Ｒタパ　イスミレテ</t>
-  </si>
-  <si>
-    <t>Ｒプン　ヘマ　クマリ</t>
-  </si>
-  <si>
-    <t>Ｒマガル　シマ　マヤ</t>
-  </si>
-  <si>
-    <t>Ｒヤカ　ホム　マヤ</t>
-  </si>
-  <si>
-    <t>Ｒグルン　サビナ</t>
-  </si>
-  <si>
-    <t>Ｒバラル　サンディア</t>
-  </si>
-  <si>
-    <t>Ｒバッタ　ディペシュ</t>
-  </si>
-  <si>
-    <t>Ｒアチャレ　ポウデル　アスミ</t>
-  </si>
-  <si>
-    <t>Ｒタパ　カンチェ</t>
-  </si>
-  <si>
-    <t>Ｋネウパネ　ブワン</t>
-  </si>
-  <si>
-    <t>Ｒサヒ　ヘミ　サラ</t>
-  </si>
-  <si>
-    <t>Ｒカトリ　スレスタ　アミタ</t>
-  </si>
-  <si>
-    <t>Ｋダカル　アチャリヤ　マラティ</t>
-  </si>
-  <si>
-    <t>Ｒグルン　ロジナ</t>
-  </si>
-  <si>
-    <t>Ｒチャンデュ　プザ</t>
-  </si>
-  <si>
-    <t>Ｒラマ　ミナ　クマリ</t>
-  </si>
-  <si>
-    <t>Ｒギシン　サンザナ</t>
-  </si>
-  <si>
-    <t>Ｒラミシャン　グルン　レリナ</t>
-  </si>
-  <si>
-    <t>Ｒカトリ　バサンティ　クマリ</t>
-  </si>
-  <si>
     <t>休憩計計</t>
     <rPh sb="3" eb="4">
       <t>ケイ</t>
@@ -610,7 +322,7 @@
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="182" formatCode="m"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,13 +472,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="ＭＳ ゴシック"/>
@@ -802,21 +507,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <strike/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -832,6 +522,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1496,7 +1193,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1772,28 +1469,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1">
@@ -1808,20 +1502,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1848,7 +1533,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1890,7 +1575,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1908,7 +1593,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1933,6 +1618,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2004,14 +1701,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2737,37 +2428,37 @@
       <selection activeCell="X12" sqref="X12"/>
       <selection pane="topRight" activeCell="X12" sqref="X12"/>
       <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="108" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="108" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="103" customWidth="1"/>
-    <col min="5" max="34" width="5.88671875" style="59" customWidth="1"/>
-    <col min="35" max="35" width="5.6640625" style="59" customWidth="1"/>
-    <col min="36" max="36" width="9.21875" style="61" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="105" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="105" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="102" customWidth="1"/>
+    <col min="5" max="34" width="5.875" style="59" customWidth="1"/>
+    <col min="35" max="35" width="5.625" style="59" customWidth="1"/>
+    <col min="36" max="36" width="9.25" style="61" customWidth="1"/>
     <col min="37" max="37" width="8" style="61" customWidth="1"/>
-    <col min="38" max="38" width="3.6640625" style="59" customWidth="1"/>
-    <col min="39" max="39" width="4.88671875" style="59" customWidth="1"/>
-    <col min="40" max="41" width="3.6640625" style="59" customWidth="1"/>
-    <col min="42" max="44" width="3.6640625" style="62" customWidth="1"/>
-    <col min="45" max="51" width="4.44140625" style="62" customWidth="1"/>
-    <col min="52" max="59" width="4.44140625" style="59" customWidth="1"/>
-    <col min="60" max="60" width="4.44140625" style="63" customWidth="1"/>
-    <col min="61" max="75" width="4.44140625" style="59" customWidth="1"/>
-    <col min="76" max="394" width="3.6640625" style="59" customWidth="1"/>
-    <col min="395" max="16384" width="3.6640625" style="59"/>
+    <col min="38" max="38" width="3.625" style="59" customWidth="1"/>
+    <col min="39" max="39" width="4.875" style="59" customWidth="1"/>
+    <col min="40" max="41" width="3.625" style="59" customWidth="1"/>
+    <col min="42" max="44" width="3.625" style="62" customWidth="1"/>
+    <col min="45" max="51" width="4.5" style="62" customWidth="1"/>
+    <col min="52" max="59" width="4.5" style="59" customWidth="1"/>
+    <col min="60" max="60" width="4.5" style="63" customWidth="1"/>
+    <col min="61" max="75" width="4.5" style="59" customWidth="1"/>
+    <col min="76" max="394" width="3.625" style="59" customWidth="1"/>
+    <col min="395" max="16384" width="3.625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:75" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:75" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="60">
         <v>45474</v>
       </c>
       <c r="E1" s="151" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F1" s="152"/>
       <c r="G1" s="152"/>
@@ -2815,7 +2506,7 @@
       <c r="BD1" s="171"/>
       <c r="BE1" s="171"/>
     </row>
-    <row r="2" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="64" t="s">
         <v>25</v>
       </c>
@@ -3086,7 +2777,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="3" spans="3:75" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:75" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C3" s="69" t="s">
         <v>30</v>
       </c>
@@ -3351,7 +3042,7 @@
         <v>水</v>
       </c>
     </row>
-    <row r="4" spans="3:75" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:75" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
       <c r="E4" s="77"/>
@@ -3435,7 +3126,7 @@
       <c r="BV4" s="82"/>
       <c r="BW4" s="82"/>
     </row>
-    <row r="5" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="83"/>
       <c r="D5" s="84"/>
       <c r="E5" s="80"/>
@@ -3519,7 +3210,7 @@
       <c r="BV5" s="87"/>
       <c r="BW5" s="87"/>
     </row>
-    <row r="6" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="64"/>
       <c r="D6" s="84"/>
       <c r="E6" s="80"/>
@@ -3603,7 +3294,7 @@
       <c r="BV6" s="87"/>
       <c r="BW6" s="87"/>
     </row>
-    <row r="7" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="64"/>
       <c r="D7" s="84"/>
       <c r="E7" s="85"/>
@@ -3687,7 +3378,7 @@
       <c r="BV7" s="87"/>
       <c r="BW7" s="87"/>
     </row>
-    <row r="8" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="83"/>
       <c r="D8" s="84"/>
       <c r="E8" s="80"/>
@@ -3771,7 +3462,7 @@
       <c r="BV8" s="86"/>
       <c r="BW8" s="86"/>
     </row>
-    <row r="9" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="83"/>
       <c r="D9" s="84"/>
       <c r="E9" s="80"/>
@@ -3855,7 +3546,7 @@
       <c r="BV9" s="87"/>
       <c r="BW9" s="87"/>
     </row>
-    <row r="10" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="83"/>
       <c r="D10" s="84"/>
       <c r="E10" s="80"/>
@@ -3939,7 +3630,7 @@
       <c r="BV10" s="87"/>
       <c r="BW10" s="87"/>
     </row>
-    <row r="11" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="83"/>
       <c r="D11" s="84"/>
       <c r="E11" s="80"/>
@@ -4023,7 +3714,7 @@
       <c r="BV11" s="87"/>
       <c r="BW11" s="87"/>
     </row>
-    <row r="12" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="83"/>
       <c r="D12" s="84"/>
       <c r="E12" s="80"/>
@@ -4107,7 +3798,7 @@
       <c r="BV12" s="87"/>
       <c r="BW12" s="86"/>
     </row>
-    <row r="13" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="83"/>
       <c r="D13" s="84"/>
       <c r="E13" s="80"/>
@@ -4191,7 +3882,7 @@
       <c r="BV13" s="86"/>
       <c r="BW13" s="87"/>
     </row>
-    <row r="14" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="83"/>
       <c r="D14" s="84"/>
       <c r="E14" s="80"/>
@@ -4275,7 +3966,7 @@
       <c r="BV14" s="90"/>
       <c r="BW14" s="89"/>
     </row>
-    <row r="15" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="83"/>
       <c r="D15" s="84"/>
       <c r="E15" s="80"/>
@@ -4359,7 +4050,7 @@
       <c r="BV15" s="90"/>
       <c r="BW15" s="90"/>
     </row>
-    <row r="16" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="64"/>
       <c r="D16" s="84"/>
       <c r="E16" s="80"/>
@@ -4443,7 +4134,7 @@
       <c r="BV16" s="89"/>
       <c r="BW16" s="89"/>
     </row>
-    <row r="17" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="83"/>
       <c r="D17" s="84"/>
       <c r="E17" s="80"/>
@@ -4527,7 +4218,7 @@
       <c r="BV17" s="89"/>
       <c r="BW17" s="89"/>
     </row>
-    <row r="18" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="83"/>
       <c r="D18" s="84"/>
       <c r="E18" s="80"/>
@@ -4611,7 +4302,7 @@
       <c r="BV18" s="89"/>
       <c r="BW18" s="89"/>
     </row>
-    <row r="19" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="83"/>
       <c r="D19" s="84"/>
       <c r="E19" s="80"/>
@@ -4695,7 +4386,7 @@
       <c r="BV19" s="90"/>
       <c r="BW19" s="89"/>
     </row>
-    <row r="20" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="83"/>
       <c r="D20" s="84"/>
       <c r="E20" s="80"/>
@@ -4779,7 +4470,7 @@
       <c r="BV20" s="90"/>
       <c r="BW20" s="90"/>
     </row>
-    <row r="21" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="83"/>
       <c r="D21" s="84"/>
       <c r="E21" s="80"/>
@@ -4863,7 +4554,7 @@
       <c r="BV21" s="90"/>
       <c r="BW21" s="90"/>
     </row>
-    <row r="22" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="83"/>
       <c r="D22" s="84"/>
       <c r="E22" s="80"/>
@@ -4947,7 +4638,7 @@
       <c r="BV22" s="89"/>
       <c r="BW22" s="90"/>
     </row>
-    <row r="23" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="83"/>
       <c r="D23" s="84"/>
       <c r="E23" s="91"/>
@@ -5031,7 +4722,7 @@
       <c r="BV23" s="89"/>
       <c r="BW23" s="90"/>
     </row>
-    <row r="24" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="83"/>
       <c r="D24" s="84"/>
       <c r="E24" s="91"/>
@@ -5115,7 +4806,7 @@
       <c r="BV24" s="89"/>
       <c r="BW24" s="89"/>
     </row>
-    <row r="25" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="83"/>
       <c r="D25" s="84"/>
       <c r="E25" s="91"/>
@@ -5199,7 +4890,7 @@
       <c r="BV25" s="89"/>
       <c r="BW25" s="89"/>
     </row>
-    <row r="26" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
       <c r="E26" s="91"/>
@@ -5283,7 +4974,7 @@
       <c r="BV26" s="89"/>
       <c r="BW26" s="90"/>
     </row>
-    <row r="27" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="83"/>
       <c r="D27" s="84"/>
       <c r="E27" s="91"/>
@@ -5367,7 +5058,7 @@
       <c r="BV27" s="89"/>
       <c r="BW27" s="90"/>
     </row>
-    <row r="28" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="83"/>
       <c r="D28" s="84"/>
       <c r="E28" s="91"/>
@@ -5451,7 +5142,7 @@
       <c r="BV28" s="89"/>
       <c r="BW28" s="89"/>
     </row>
-    <row r="29" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="83"/>
       <c r="D29" s="84"/>
       <c r="E29" s="91"/>
@@ -5535,7 +5226,7 @@
       <c r="BV29" s="90"/>
       <c r="BW29" s="90"/>
     </row>
-    <row r="30" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="83"/>
       <c r="D30" s="84"/>
       <c r="E30" s="91"/>
@@ -5619,7 +5310,7 @@
       <c r="BV30" s="89"/>
       <c r="BW30" s="89"/>
     </row>
-    <row r="31" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="83"/>
       <c r="D31" s="84"/>
       <c r="E31" s="91"/>
@@ -5703,7 +5394,7 @@
       <c r="BV31" s="89"/>
       <c r="BW31" s="90"/>
     </row>
-    <row r="32" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="83"/>
       <c r="D32" s="84"/>
       <c r="E32" s="91"/>
@@ -5787,9 +5478,9 @@
       <c r="BV32" s="90"/>
       <c r="BW32" s="90"/>
     </row>
-    <row r="33" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
+    <row r="33" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="93"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="80"/>
       <c r="F33" s="80"/>
       <c r="G33" s="80"/>
@@ -5871,7 +5562,7 @@
       <c r="BV33" s="89"/>
       <c r="BW33" s="90"/>
     </row>
-    <row r="34" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="83"/>
       <c r="D34" s="84"/>
       <c r="E34" s="91"/>
@@ -5955,7 +5646,7 @@
       <c r="BV34" s="90"/>
       <c r="BW34" s="90"/>
     </row>
-    <row r="35" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="83"/>
       <c r="D35" s="84"/>
       <c r="E35" s="91"/>
@@ -6039,8 +5730,8 @@
       <c r="BV35" s="89"/>
       <c r="BW35" s="90"/>
     </row>
-    <row r="36" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="94"/>
+    <row r="36" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="93"/>
       <c r="D36" s="84"/>
       <c r="E36" s="91"/>
       <c r="F36" s="91"/>
@@ -6123,8 +5814,8 @@
       <c r="BV36" s="90"/>
       <c r="BW36" s="90"/>
     </row>
-    <row r="37" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="94"/>
+    <row r="37" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="93"/>
       <c r="D37" s="84"/>
       <c r="E37" s="91"/>
       <c r="F37" s="91"/>
@@ -6207,7 +5898,7 @@
       <c r="BV37" s="89"/>
       <c r="BW37" s="89"/>
     </row>
-    <row r="38" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="83"/>
       <c r="D38" s="84"/>
       <c r="E38" s="91"/>
@@ -6291,7 +5982,7 @@
       <c r="BV38" s="89"/>
       <c r="BW38" s="90"/>
     </row>
-    <row r="39" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="83"/>
       <c r="D39" s="84"/>
       <c r="E39" s="91"/>
@@ -6375,8 +6066,8 @@
       <c r="BV39" s="90"/>
       <c r="BW39" s="90"/>
     </row>
-    <row r="40" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="94"/>
+    <row r="40" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="93"/>
       <c r="D40" s="84"/>
       <c r="E40" s="91"/>
       <c r="F40" s="91"/>
@@ -6459,8 +6150,8 @@
       <c r="BV40" s="89"/>
       <c r="BW40" s="89"/>
     </row>
-    <row r="41" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="94"/>
+    <row r="41" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="93"/>
       <c r="D41" s="84"/>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
@@ -6543,8 +6234,8 @@
       <c r="BV41" s="90"/>
       <c r="BW41" s="90"/>
     </row>
-    <row r="42" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="94"/>
+    <row r="42" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="93"/>
       <c r="D42" s="84"/>
       <c r="E42" s="91"/>
       <c r="F42" s="91"/>
@@ -6627,9 +6318,9 @@
       <c r="BV42" s="89"/>
       <c r="BW42" s="90"/>
     </row>
-    <row r="43" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="92"/>
-      <c r="D43" s="93"/>
+    <row r="43" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="93"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="91"/>
       <c r="F43" s="91"/>
       <c r="G43" s="91"/>
@@ -6711,8 +6402,8 @@
       <c r="BV43" s="90"/>
       <c r="BW43" s="89"/>
     </row>
-    <row r="44" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="94"/>
+    <row r="44" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="93"/>
       <c r="D44" s="84"/>
       <c r="E44" s="91"/>
       <c r="F44" s="91"/>
@@ -6795,8 +6486,8 @@
       <c r="BV44" s="89"/>
       <c r="BW44" s="89"/>
     </row>
-    <row r="45" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="94"/>
+    <row r="45" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="93"/>
       <c r="D45" s="84"/>
       <c r="E45" s="91"/>
       <c r="F45" s="91"/>
@@ -6879,8 +6570,8 @@
       <c r="BV45" s="89"/>
       <c r="BW45" s="89"/>
     </row>
-    <row r="46" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="94"/>
+    <row r="46" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="93"/>
       <c r="D46" s="84"/>
       <c r="E46" s="91"/>
       <c r="F46" s="91"/>
@@ -6963,7 +6654,7 @@
       <c r="BV46" s="90"/>
       <c r="BW46" s="90"/>
     </row>
-    <row r="47" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="83"/>
       <c r="D47" s="84"/>
       <c r="E47" s="91"/>
@@ -7047,7 +6738,7 @@
       <c r="BV47" s="89"/>
       <c r="BW47" s="89"/>
     </row>
-    <row r="48" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="83"/>
       <c r="D48" s="84"/>
       <c r="E48" s="91"/>
@@ -7131,8 +6822,8 @@
       <c r="BV48" s="89"/>
       <c r="BW48" s="89"/>
     </row>
-    <row r="49" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="94"/>
+    <row r="49" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="93"/>
       <c r="D49" s="84"/>
       <c r="E49" s="91"/>
       <c r="F49" s="91"/>
@@ -7215,8 +6906,8 @@
       <c r="BV49" s="90"/>
       <c r="BW49" s="90"/>
     </row>
-    <row r="50" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="94"/>
+    <row r="50" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="93"/>
       <c r="D50" s="84"/>
       <c r="E50" s="91"/>
       <c r="F50" s="91"/>
@@ -7299,8 +6990,8 @@
       <c r="BV50" s="89"/>
       <c r="BW50" s="89"/>
     </row>
-    <row r="51" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="94"/>
+    <row r="51" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="93"/>
       <c r="D51" s="84"/>
       <c r="E51" s="91"/>
       <c r="F51" s="91"/>
@@ -7383,8 +7074,8 @@
       <c r="BV51" s="89"/>
       <c r="BW51" s="90"/>
     </row>
-    <row r="52" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="94"/>
+    <row r="52" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="93"/>
       <c r="D52" s="84"/>
       <c r="E52" s="91"/>
       <c r="F52" s="91"/>
@@ -7467,8 +7158,8 @@
       <c r="BV52" s="90"/>
       <c r="BW52" s="89"/>
     </row>
-    <row r="53" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="94"/>
+    <row r="53" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="93"/>
       <c r="D53" s="84"/>
       <c r="E53" s="91"/>
       <c r="F53" s="91"/>
@@ -7551,8 +7242,8 @@
       <c r="BV53" s="90"/>
       <c r="BW53" s="90"/>
     </row>
-    <row r="54" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="94"/>
+    <row r="54" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="93"/>
       <c r="D54" s="84"/>
       <c r="E54" s="91"/>
       <c r="F54" s="91"/>
@@ -7635,8 +7326,8 @@
       <c r="BV54" s="90"/>
       <c r="BW54" s="89"/>
     </row>
-    <row r="55" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="94"/>
+    <row r="55" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="93"/>
       <c r="D55" s="84"/>
       <c r="E55" s="91"/>
       <c r="F55" s="91"/>
@@ -7719,7 +7410,7 @@
       <c r="BV55" s="89"/>
       <c r="BW55" s="90"/>
     </row>
-    <row r="56" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="64"/>
       <c r="D56" s="84"/>
       <c r="E56" s="91"/>
@@ -7803,7 +7494,7 @@
       <c r="BV56" s="89"/>
       <c r="BW56" s="89"/>
     </row>
-    <row r="57" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="83"/>
       <c r="D57" s="84"/>
       <c r="E57" s="91"/>
@@ -7887,7 +7578,7 @@
       <c r="BV57" s="90"/>
       <c r="BW57" s="90"/>
     </row>
-    <row r="58" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="83"/>
       <c r="D58" s="84"/>
       <c r="E58" s="91"/>
@@ -7971,9 +7662,9 @@
       <c r="BV58" s="90"/>
       <c r="BW58" s="90"/>
     </row>
-    <row r="59" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="92"/>
-      <c r="D59" s="93"/>
+    <row r="59" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="93"/>
+      <c r="D59" s="84"/>
       <c r="E59" s="91"/>
       <c r="F59" s="91"/>
       <c r="G59" s="91"/>
@@ -8055,8 +7746,8 @@
       <c r="BV59" s="90"/>
       <c r="BW59" s="90"/>
     </row>
-    <row r="60" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="94"/>
+    <row r="60" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="93"/>
       <c r="D60" s="84"/>
       <c r="E60" s="91"/>
       <c r="F60" s="91"/>
@@ -8139,7 +7830,7 @@
       <c r="BV60" s="90"/>
       <c r="BW60" s="90"/>
     </row>
-    <row r="61" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="83"/>
       <c r="D61" s="84"/>
       <c r="E61" s="91"/>
@@ -8223,8 +7914,8 @@
       <c r="BV61" s="90"/>
       <c r="BW61" s="90"/>
     </row>
-    <row r="62" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="94"/>
+    <row r="62" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="93"/>
       <c r="D62" s="84"/>
       <c r="E62" s="91"/>
       <c r="F62" s="91"/>
@@ -8307,8 +7998,8 @@
       <c r="BV62" s="90"/>
       <c r="BW62" s="90"/>
     </row>
-    <row r="63" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="94"/>
+    <row r="63" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="93"/>
       <c r="D63" s="84"/>
       <c r="E63" s="91"/>
       <c r="F63" s="91"/>
@@ -8391,8 +8082,8 @@
       <c r="BV63" s="90"/>
       <c r="BW63" s="90"/>
     </row>
-    <row r="64" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="94"/>
+    <row r="64" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="93"/>
       <c r="D64" s="84"/>
       <c r="E64" s="91"/>
       <c r="F64" s="91"/>
@@ -8475,8 +8166,8 @@
       <c r="BV64" s="90"/>
       <c r="BW64" s="90"/>
     </row>
-    <row r="65" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="94"/>
+    <row r="65" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="93"/>
       <c r="D65" s="84"/>
       <c r="E65" s="91"/>
       <c r="F65" s="91"/>
@@ -8559,8 +8250,8 @@
       <c r="BV65" s="90"/>
       <c r="BW65" s="90"/>
     </row>
-    <row r="66" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="94"/>
+    <row r="66" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="93"/>
       <c r="D66" s="84"/>
       <c r="E66" s="91"/>
       <c r="F66" s="91"/>
@@ -8643,8 +8334,8 @@
       <c r="BV66" s="90"/>
       <c r="BW66" s="90"/>
     </row>
-    <row r="67" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="94"/>
+    <row r="67" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="93"/>
       <c r="D67" s="84"/>
       <c r="E67" s="91"/>
       <c r="F67" s="91"/>
@@ -8727,8 +8418,8 @@
       <c r="BV67" s="90"/>
       <c r="BW67" s="90"/>
     </row>
-    <row r="68" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="94"/>
+    <row r="68" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="93"/>
       <c r="D68" s="84"/>
       <c r="E68" s="91"/>
       <c r="F68" s="91"/>
@@ -8811,7 +8502,7 @@
       <c r="BV68" s="90"/>
       <c r="BW68" s="90"/>
     </row>
-    <row r="69" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="83"/>
       <c r="D69" s="84"/>
       <c r="E69" s="91"/>
@@ -8895,8 +8586,8 @@
       <c r="BV69" s="90"/>
       <c r="BW69" s="90"/>
     </row>
-    <row r="70" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="94"/>
+    <row r="70" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="93"/>
       <c r="D70" s="84"/>
       <c r="E70" s="91"/>
       <c r="F70" s="91"/>
@@ -8979,8 +8670,8 @@
       <c r="BV70" s="90"/>
       <c r="BW70" s="90"/>
     </row>
-    <row r="71" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="94"/>
+    <row r="71" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="93"/>
       <c r="D71" s="84"/>
       <c r="E71" s="91"/>
       <c r="F71" s="91"/>
@@ -9063,8 +8754,8 @@
       <c r="BV71" s="90"/>
       <c r="BW71" s="90"/>
     </row>
-    <row r="72" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="94"/>
+    <row r="72" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="93"/>
       <c r="D72" s="84"/>
       <c r="E72" s="91"/>
       <c r="F72" s="91"/>
@@ -9147,8 +8838,8 @@
       <c r="BV72" s="90"/>
       <c r="BW72" s="90"/>
     </row>
-    <row r="73" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="94"/>
+    <row r="73" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="93"/>
       <c r="D73" s="84"/>
       <c r="E73" s="91"/>
       <c r="F73" s="91"/>
@@ -9231,9 +8922,9 @@
       <c r="BV73" s="90"/>
       <c r="BW73" s="90"/>
     </row>
-    <row r="74" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
+    <row r="74" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="93"/>
+      <c r="D74" s="84"/>
       <c r="E74" s="91"/>
       <c r="F74" s="91"/>
       <c r="G74" s="91"/>
@@ -9315,8 +9006,8 @@
       <c r="BV74" s="90"/>
       <c r="BW74" s="90"/>
     </row>
-    <row r="75" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="94"/>
+    <row r="75" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="93"/>
       <c r="D75" s="84"/>
       <c r="E75" s="91"/>
       <c r="F75" s="91"/>
@@ -9399,7 +9090,7 @@
       <c r="BV75" s="90"/>
       <c r="BW75" s="90"/>
     </row>
-    <row r="76" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="83"/>
       <c r="D76" s="84"/>
       <c r="E76" s="91"/>
@@ -9483,9 +9174,9 @@
       <c r="BV76" s="90"/>
       <c r="BW76" s="90"/>
     </row>
-    <row r="77" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
+    <row r="77" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="93"/>
+      <c r="D77" s="84"/>
       <c r="E77" s="91"/>
       <c r="F77" s="91"/>
       <c r="G77" s="91"/>
@@ -9567,8 +9258,8 @@
       <c r="BV77" s="90"/>
       <c r="BW77" s="90"/>
     </row>
-    <row r="78" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="94"/>
+    <row r="78" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="93"/>
       <c r="D78" s="84"/>
       <c r="E78" s="91"/>
       <c r="F78" s="91"/>
@@ -9651,9 +9342,9 @@
       <c r="BV78" s="90"/>
       <c r="BW78" s="90"/>
     </row>
-    <row r="79" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="92"/>
-      <c r="D79" s="93"/>
+    <row r="79" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="93"/>
+      <c r="D79" s="84"/>
       <c r="E79" s="91"/>
       <c r="F79" s="91"/>
       <c r="G79" s="91"/>
@@ -9735,9 +9426,9 @@
       <c r="BV79" s="90"/>
       <c r="BW79" s="90"/>
     </row>
-    <row r="80" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
+    <row r="80" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="93"/>
+      <c r="D80" s="84"/>
       <c r="E80" s="91"/>
       <c r="F80" s="91"/>
       <c r="G80" s="91"/>
@@ -9819,9 +9510,9 @@
       <c r="BV80" s="90"/>
       <c r="BW80" s="90"/>
     </row>
-    <row r="81" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="92"/>
-      <c r="D81" s="93"/>
+    <row r="81" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="93"/>
+      <c r="D81" s="84"/>
       <c r="E81" s="91"/>
       <c r="F81" s="91"/>
       <c r="G81" s="91"/>
@@ -9903,9 +9594,9 @@
       <c r="BV81" s="90"/>
       <c r="BW81" s="90"/>
     </row>
-    <row r="82" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="92"/>
-      <c r="D82" s="93"/>
+    <row r="82" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="93"/>
+      <c r="D82" s="84"/>
       <c r="E82" s="91"/>
       <c r="F82" s="91"/>
       <c r="G82" s="91"/>
@@ -9987,8 +9678,8 @@
       <c r="BV82" s="90"/>
       <c r="BW82" s="90"/>
     </row>
-    <row r="83" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="94"/>
+    <row r="83" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="93"/>
       <c r="D83" s="84"/>
       <c r="E83" s="91"/>
       <c r="F83" s="91"/>
@@ -10071,7 +9762,7 @@
       <c r="BV83" s="90"/>
       <c r="BW83" s="90"/>
     </row>
-    <row r="84" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="64"/>
       <c r="D84" s="84"/>
       <c r="E84" s="91"/>
@@ -10155,9 +9846,9 @@
       <c r="BV84" s="90"/>
       <c r="BW84" s="90"/>
     </row>
-    <row r="85" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="92"/>
-      <c r="D85" s="93"/>
+    <row r="85" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="93"/>
+      <c r="D85" s="84"/>
       <c r="E85" s="91"/>
       <c r="F85" s="91"/>
       <c r="G85" s="91"/>
@@ -10239,9 +9930,9 @@
       <c r="BV85" s="90"/>
       <c r="BW85" s="90"/>
     </row>
-    <row r="86" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="92"/>
-      <c r="D86" s="93"/>
+    <row r="86" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="93"/>
+      <c r="D86" s="84"/>
       <c r="E86" s="91"/>
       <c r="F86" s="91"/>
       <c r="G86" s="91"/>
@@ -10323,9 +10014,9 @@
       <c r="BV86" s="90"/>
       <c r="BW86" s="90"/>
     </row>
-    <row r="87" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="92"/>
-      <c r="D87" s="93"/>
+    <row r="87" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="93"/>
+      <c r="D87" s="84"/>
       <c r="E87" s="91"/>
       <c r="F87" s="91"/>
       <c r="G87" s="91"/>
@@ -10407,9 +10098,9 @@
       <c r="BV87" s="90"/>
       <c r="BW87" s="90"/>
     </row>
-    <row r="88" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
+    <row r="88" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="93"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="91"/>
       <c r="F88" s="91"/>
       <c r="G88" s="91"/>
@@ -10491,9 +10182,9 @@
       <c r="BV88" s="90"/>
       <c r="BW88" s="90"/>
     </row>
-    <row r="89" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="92"/>
-      <c r="D89" s="93"/>
+    <row r="89" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="93"/>
+      <c r="D89" s="84"/>
       <c r="E89" s="91"/>
       <c r="F89" s="91"/>
       <c r="G89" s="91"/>
@@ -10575,9 +10266,9 @@
       <c r="BV89" s="90"/>
       <c r="BW89" s="90"/>
     </row>
-    <row r="90" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="92"/>
-      <c r="D90" s="93"/>
+    <row r="90" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="93"/>
+      <c r="D90" s="84"/>
       <c r="E90" s="91"/>
       <c r="F90" s="91"/>
       <c r="G90" s="91"/>
@@ -10659,9 +10350,9 @@
       <c r="BV90" s="90"/>
       <c r="BW90" s="90"/>
     </row>
-    <row r="91" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="92"/>
-      <c r="D91" s="93"/>
+    <row r="91" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="93"/>
+      <c r="D91" s="84"/>
       <c r="E91" s="91"/>
       <c r="F91" s="91"/>
       <c r="G91" s="91"/>
@@ -10743,9 +10434,9 @@
       <c r="BV91" s="90"/>
       <c r="BW91" s="90"/>
     </row>
-    <row r="92" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="92"/>
-      <c r="D92" s="93"/>
+    <row r="92" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="93"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="91"/>
       <c r="F92" s="91"/>
       <c r="G92" s="91"/>
@@ -10827,9 +10518,9 @@
       <c r="BV92" s="90"/>
       <c r="BW92" s="90"/>
     </row>
-    <row r="93" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="92"/>
-      <c r="D93" s="93"/>
+    <row r="93" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="93"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="91"/>
       <c r="F93" s="91"/>
       <c r="G93" s="91"/>
@@ -10911,9 +10602,9 @@
       <c r="BV93" s="90"/>
       <c r="BW93" s="90"/>
     </row>
-    <row r="94" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="92"/>
-      <c r="D94" s="93"/>
+    <row r="94" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="93"/>
+      <c r="D94" s="84"/>
       <c r="E94" s="91"/>
       <c r="F94" s="91"/>
       <c r="G94" s="91"/>
@@ -10995,9 +10686,9 @@
       <c r="BV94" s="90"/>
       <c r="BW94" s="90"/>
     </row>
-    <row r="95" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="92"/>
-      <c r="D95" s="93"/>
+    <row r="95" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="93"/>
+      <c r="D95" s="84"/>
       <c r="E95" s="91"/>
       <c r="F95" s="91"/>
       <c r="G95" s="91"/>
@@ -11079,9 +10770,9 @@
       <c r="BV95" s="90"/>
       <c r="BW95" s="90"/>
     </row>
-    <row r="96" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="92"/>
-      <c r="D96" s="93"/>
+    <row r="96" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="93"/>
+      <c r="D96" s="84"/>
       <c r="E96" s="91"/>
       <c r="F96" s="91"/>
       <c r="G96" s="91"/>
@@ -11163,9 +10854,9 @@
       <c r="BV96" s="90"/>
       <c r="BW96" s="90"/>
     </row>
-    <row r="97" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="92"/>
-      <c r="D97" s="93"/>
+    <row r="97" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="93"/>
+      <c r="D97" s="84"/>
       <c r="E97" s="91"/>
       <c r="F97" s="91"/>
       <c r="G97" s="91"/>
@@ -11247,9 +10938,9 @@
       <c r="BV97" s="90"/>
       <c r="BW97" s="90"/>
     </row>
-    <row r="98" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="92"/>
-      <c r="D98" s="93"/>
+    <row r="98" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="93"/>
+      <c r="D98" s="84"/>
       <c r="E98" s="91"/>
       <c r="F98" s="91"/>
       <c r="G98" s="91"/>
@@ -11331,8 +11022,8 @@
       <c r="BV98" s="90"/>
       <c r="BW98" s="90"/>
     </row>
-    <row r="99" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="94"/>
+    <row r="99" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="93"/>
       <c r="D99" s="84"/>
       <c r="E99" s="91"/>
       <c r="F99" s="91"/>
@@ -11415,9 +11106,9 @@
       <c r="BV99" s="90"/>
       <c r="BW99" s="90"/>
     </row>
-    <row r="100" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="92"/>
-      <c r="D100" s="93"/>
+    <row r="100" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="93"/>
+      <c r="D100" s="84"/>
       <c r="E100" s="91"/>
       <c r="F100" s="91"/>
       <c r="G100" s="91"/>
@@ -11499,9 +11190,9 @@
       <c r="BV100" s="90"/>
       <c r="BW100" s="90"/>
     </row>
-    <row r="101" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="92"/>
-      <c r="D101" s="93"/>
+    <row r="101" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="93"/>
+      <c r="D101" s="84"/>
       <c r="E101" s="91"/>
       <c r="F101" s="91"/>
       <c r="G101" s="91"/>
@@ -11583,9 +11274,9 @@
       <c r="BV101" s="90"/>
       <c r="BW101" s="90"/>
     </row>
-    <row r="102" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="92"/>
-      <c r="D102" s="93"/>
+    <row r="102" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="93"/>
+      <c r="D102" s="84"/>
       <c r="E102" s="91"/>
       <c r="F102" s="91"/>
       <c r="G102" s="91"/>
@@ -11667,9 +11358,9 @@
       <c r="BV102" s="90"/>
       <c r="BW102" s="90"/>
     </row>
-    <row r="103" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="92"/>
-      <c r="D103" s="93"/>
+    <row r="103" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="93"/>
+      <c r="D103" s="84"/>
       <c r="E103" s="91"/>
       <c r="F103" s="91"/>
       <c r="G103" s="91"/>
@@ -11751,9 +11442,9 @@
       <c r="BV103" s="90"/>
       <c r="BW103" s="90"/>
     </row>
-    <row r="104" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="92"/>
-      <c r="D104" s="93"/>
+    <row r="104" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="93"/>
+      <c r="D104" s="84"/>
       <c r="E104" s="91"/>
       <c r="F104" s="91"/>
       <c r="G104" s="91"/>
@@ -11835,9 +11526,9 @@
       <c r="BV104" s="90"/>
       <c r="BW104" s="90"/>
     </row>
-    <row r="105" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="92"/>
-      <c r="D105" s="93"/>
+    <row r="105" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="93"/>
+      <c r="D105" s="84"/>
       <c r="E105" s="91"/>
       <c r="F105" s="91"/>
       <c r="G105" s="91"/>
@@ -11919,9 +11610,9 @@
       <c r="BV105" s="90"/>
       <c r="BW105" s="90"/>
     </row>
-    <row r="106" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="92"/>
-      <c r="D106" s="93"/>
+    <row r="106" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="93"/>
+      <c r="D106" s="84"/>
       <c r="E106" s="91"/>
       <c r="F106" s="91"/>
       <c r="G106" s="91"/>
@@ -12003,9 +11694,9 @@
       <c r="BV106" s="90"/>
       <c r="BW106" s="90"/>
     </row>
-    <row r="107" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="92"/>
-      <c r="D107" s="93"/>
+    <row r="107" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="93"/>
+      <c r="D107" s="84"/>
       <c r="E107" s="91"/>
       <c r="F107" s="91"/>
       <c r="G107" s="91"/>
@@ -12087,9 +11778,9 @@
       <c r="BV107" s="90"/>
       <c r="BW107" s="90"/>
     </row>
-    <row r="108" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="92"/>
-      <c r="D108" s="93"/>
+    <row r="108" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="93"/>
+      <c r="D108" s="84"/>
       <c r="E108" s="91"/>
       <c r="F108" s="91"/>
       <c r="G108" s="91"/>
@@ -12171,9 +11862,9 @@
       <c r="BV108" s="90"/>
       <c r="BW108" s="90"/>
     </row>
-    <row r="109" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="92"/>
-      <c r="D109" s="93"/>
+    <row r="109" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="93"/>
+      <c r="D109" s="84"/>
       <c r="E109" s="91"/>
       <c r="F109" s="91"/>
       <c r="G109" s="91"/>
@@ -12255,9 +11946,9 @@
       <c r="BV109" s="90"/>
       <c r="BW109" s="90"/>
     </row>
-    <row r="110" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="92"/>
-      <c r="D110" s="93"/>
+    <row r="110" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="93"/>
+      <c r="D110" s="84"/>
       <c r="E110" s="91"/>
       <c r="F110" s="91"/>
       <c r="G110" s="91"/>
@@ -12339,9 +12030,9 @@
       <c r="BV110" s="90"/>
       <c r="BW110" s="90"/>
     </row>
-    <row r="111" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="92"/>
-      <c r="D111" s="93"/>
+    <row r="111" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="93"/>
+      <c r="D111" s="84"/>
       <c r="E111" s="91"/>
       <c r="F111" s="91"/>
       <c r="G111" s="91"/>
@@ -12423,9 +12114,9 @@
       <c r="BV111" s="90"/>
       <c r="BW111" s="90"/>
     </row>
-    <row r="112" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="92"/>
-      <c r="D112" s="93"/>
+    <row r="112" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="93"/>
+      <c r="D112" s="84"/>
       <c r="E112" s="91"/>
       <c r="F112" s="91"/>
       <c r="G112" s="91"/>
@@ -12507,9 +12198,9 @@
       <c r="BV112" s="90"/>
       <c r="BW112" s="90"/>
     </row>
-    <row r="113" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="92"/>
-      <c r="D113" s="93"/>
+    <row r="113" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="93"/>
+      <c r="D113" s="84"/>
       <c r="E113" s="91"/>
       <c r="F113" s="91"/>
       <c r="G113" s="91"/>
@@ -12591,9 +12282,9 @@
       <c r="BV113" s="90"/>
       <c r="BW113" s="90"/>
     </row>
-    <row r="114" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="92"/>
-      <c r="D114" s="93"/>
+    <row r="114" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="93"/>
+      <c r="D114" s="84"/>
       <c r="E114" s="91"/>
       <c r="F114" s="91"/>
       <c r="G114" s="91"/>
@@ -12675,9 +12366,9 @@
       <c r="BV114" s="90"/>
       <c r="BW114" s="90"/>
     </row>
-    <row r="115" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="92"/>
-      <c r="D115" s="93"/>
+    <row r="115" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="93"/>
+      <c r="D115" s="84"/>
       <c r="E115" s="91"/>
       <c r="F115" s="91"/>
       <c r="G115" s="91"/>
@@ -12759,9 +12450,9 @@
       <c r="BV115" s="90"/>
       <c r="BW115" s="90"/>
     </row>
-    <row r="116" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="92"/>
-      <c r="D116" s="93"/>
+    <row r="116" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="93"/>
+      <c r="D116" s="84"/>
       <c r="E116" s="91"/>
       <c r="F116" s="91"/>
       <c r="G116" s="91"/>
@@ -12843,9 +12534,9 @@
       <c r="BV116" s="90"/>
       <c r="BW116" s="90"/>
     </row>
-    <row r="117" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="92"/>
-      <c r="D117" s="93"/>
+    <row r="117" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="93"/>
+      <c r="D117" s="84"/>
       <c r="E117" s="91"/>
       <c r="F117" s="91"/>
       <c r="G117" s="91"/>
@@ -12927,9 +12618,9 @@
       <c r="BV117" s="90"/>
       <c r="BW117" s="90"/>
     </row>
-    <row r="118" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="92"/>
-      <c r="D118" s="93"/>
+    <row r="118" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="93"/>
+      <c r="D118" s="84"/>
       <c r="E118" s="91"/>
       <c r="F118" s="91"/>
       <c r="G118" s="91"/>
@@ -13011,9 +12702,9 @@
       <c r="BV118" s="90"/>
       <c r="BW118" s="90"/>
     </row>
-    <row r="119" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="92"/>
-      <c r="D119" s="93"/>
+    <row r="119" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="93"/>
+      <c r="D119" s="84"/>
       <c r="E119" s="91"/>
       <c r="F119" s="91"/>
       <c r="G119" s="91"/>
@@ -13095,9 +12786,9 @@
       <c r="BV119" s="90"/>
       <c r="BW119" s="90"/>
     </row>
-    <row r="120" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="92"/>
-      <c r="D120" s="93"/>
+    <row r="120" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="93"/>
+      <c r="D120" s="84"/>
       <c r="E120" s="91"/>
       <c r="F120" s="91"/>
       <c r="G120" s="91"/>
@@ -13179,9 +12870,9 @@
       <c r="BV120" s="90"/>
       <c r="BW120" s="90"/>
     </row>
-    <row r="121" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="92"/>
-      <c r="D121" s="93"/>
+    <row r="121" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="93"/>
+      <c r="D121" s="84"/>
       <c r="E121" s="91"/>
       <c r="F121" s="91"/>
       <c r="G121" s="91"/>
@@ -13263,9 +12954,9 @@
       <c r="BV121" s="90"/>
       <c r="BW121" s="90"/>
     </row>
-    <row r="122" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="92"/>
-      <c r="D122" s="93"/>
+    <row r="122" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="93"/>
+      <c r="D122" s="84"/>
       <c r="E122" s="91"/>
       <c r="F122" s="91"/>
       <c r="G122" s="91"/>
@@ -13347,9 +13038,9 @@
       <c r="BV122" s="90"/>
       <c r="BW122" s="90"/>
     </row>
-    <row r="123" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="92"/>
-      <c r="D123" s="93"/>
+    <row r="123" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="93"/>
+      <c r="D123" s="84"/>
       <c r="E123" s="91"/>
       <c r="F123" s="91"/>
       <c r="G123" s="91"/>
@@ -13431,9 +13122,9 @@
       <c r="BV123" s="90"/>
       <c r="BW123" s="90"/>
     </row>
-    <row r="124" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="92"/>
-      <c r="D124" s="93"/>
+    <row r="124" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="93"/>
+      <c r="D124" s="84"/>
       <c r="E124" s="91"/>
       <c r="F124" s="91"/>
       <c r="G124" s="91"/>
@@ -13515,9 +13206,9 @@
       <c r="BV124" s="90"/>
       <c r="BW124" s="90"/>
     </row>
-    <row r="125" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="92"/>
-      <c r="D125" s="93"/>
+    <row r="125" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="93"/>
+      <c r="D125" s="84"/>
       <c r="E125" s="91"/>
       <c r="F125" s="91"/>
       <c r="G125" s="91"/>
@@ -13599,9 +13290,9 @@
       <c r="BV125" s="90"/>
       <c r="BW125" s="90"/>
     </row>
-    <row r="126" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="92"/>
-      <c r="D126" s="93"/>
+    <row r="126" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="93"/>
+      <c r="D126" s="84"/>
       <c r="E126" s="91"/>
       <c r="F126" s="91"/>
       <c r="G126" s="91"/>
@@ -13683,9 +13374,9 @@
       <c r="BV126" s="90"/>
       <c r="BW126" s="90"/>
     </row>
-    <row r="127" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="92"/>
-      <c r="D127" s="93"/>
+    <row r="127" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="93"/>
+      <c r="D127" s="84"/>
       <c r="E127" s="91"/>
       <c r="F127" s="91"/>
       <c r="G127" s="91"/>
@@ -13767,9 +13458,9 @@
       <c r="BV127" s="90"/>
       <c r="BW127" s="90"/>
     </row>
-    <row r="128" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="92"/>
-      <c r="D128" s="93"/>
+    <row r="128" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="93"/>
+      <c r="D128" s="84"/>
       <c r="E128" s="91"/>
       <c r="F128" s="91"/>
       <c r="G128" s="91"/>
@@ -13851,9 +13542,9 @@
       <c r="BV128" s="90"/>
       <c r="BW128" s="90"/>
     </row>
-    <row r="129" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="92"/>
-      <c r="D129" s="93"/>
+    <row r="129" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="93"/>
+      <c r="D129" s="84"/>
       <c r="E129" s="91"/>
       <c r="F129" s="91"/>
       <c r="G129" s="91"/>
@@ -13935,9 +13626,9 @@
       <c r="BV129" s="90"/>
       <c r="BW129" s="90"/>
     </row>
-    <row r="130" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="92"/>
-      <c r="D130" s="93"/>
+    <row r="130" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="93"/>
+      <c r="D130" s="84"/>
       <c r="E130" s="91"/>
       <c r="F130" s="91"/>
       <c r="G130" s="91"/>
@@ -14019,9 +13710,9 @@
       <c r="BV130" s="90"/>
       <c r="BW130" s="90"/>
     </row>
-    <row r="131" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="92"/>
-      <c r="D131" s="93"/>
+    <row r="131" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="93"/>
+      <c r="D131" s="84"/>
       <c r="E131" s="91"/>
       <c r="F131" s="91"/>
       <c r="G131" s="91"/>
@@ -14103,9 +13794,9 @@
       <c r="BV131" s="90"/>
       <c r="BW131" s="90"/>
     </row>
-    <row r="132" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="92"/>
-      <c r="D132" s="93"/>
+    <row r="132" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="93"/>
+      <c r="D132" s="84"/>
       <c r="E132" s="91"/>
       <c r="F132" s="91"/>
       <c r="G132" s="91"/>
@@ -14187,9 +13878,9 @@
       <c r="BV132" s="90"/>
       <c r="BW132" s="90"/>
     </row>
-    <row r="133" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="92"/>
-      <c r="D133" s="93"/>
+    <row r="133" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="93"/>
+      <c r="D133" s="84"/>
       <c r="E133" s="91"/>
       <c r="F133" s="91"/>
       <c r="G133" s="91"/>
@@ -14271,9 +13962,9 @@
       <c r="BV133" s="90"/>
       <c r="BW133" s="90"/>
     </row>
-    <row r="134" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="92"/>
-      <c r="D134" s="93"/>
+    <row r="134" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="93"/>
+      <c r="D134" s="84"/>
       <c r="E134" s="91"/>
       <c r="F134" s="91"/>
       <c r="G134" s="91"/>
@@ -14355,9 +14046,9 @@
       <c r="BV134" s="90"/>
       <c r="BW134" s="90"/>
     </row>
-    <row r="135" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="92"/>
-      <c r="D135" s="93"/>
+    <row r="135" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="93"/>
+      <c r="D135" s="84"/>
       <c r="E135" s="91"/>
       <c r="F135" s="91"/>
       <c r="G135" s="91"/>
@@ -14439,9 +14130,9 @@
       <c r="BV135" s="90"/>
       <c r="BW135" s="90"/>
     </row>
-    <row r="136" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="92"/>
-      <c r="D136" s="93"/>
+    <row r="136" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="93"/>
+      <c r="D136" s="84"/>
       <c r="E136" s="91"/>
       <c r="F136" s="91"/>
       <c r="G136" s="91"/>
@@ -14523,9 +14214,9 @@
       <c r="BV136" s="90"/>
       <c r="BW136" s="90"/>
     </row>
-    <row r="137" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="92"/>
-      <c r="D137" s="93"/>
+    <row r="137" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="93"/>
+      <c r="D137" s="84"/>
       <c r="E137" s="91"/>
       <c r="F137" s="91"/>
       <c r="G137" s="91"/>
@@ -14607,9 +14298,9 @@
       <c r="BV137" s="90"/>
       <c r="BW137" s="90"/>
     </row>
-    <row r="138" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="92"/>
-      <c r="D138" s="93"/>
+    <row r="138" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="93"/>
+      <c r="D138" s="84"/>
       <c r="E138" s="91"/>
       <c r="F138" s="91"/>
       <c r="G138" s="91"/>
@@ -14691,9 +14382,9 @@
       <c r="BV138" s="90"/>
       <c r="BW138" s="90"/>
     </row>
-    <row r="139" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="92"/>
-      <c r="D139" s="93"/>
+    <row r="139" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="93"/>
+      <c r="D139" s="84"/>
       <c r="E139" s="91"/>
       <c r="F139" s="91"/>
       <c r="G139" s="91"/>
@@ -14775,9 +14466,9 @@
       <c r="BV139" s="90"/>
       <c r="BW139" s="90"/>
     </row>
-    <row r="140" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="92"/>
-      <c r="D140" s="93"/>
+    <row r="140" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="93"/>
+      <c r="D140" s="84"/>
       <c r="E140" s="91"/>
       <c r="F140" s="91"/>
       <c r="G140" s="91"/>
@@ -14859,9 +14550,9 @@
       <c r="BV140" s="90"/>
       <c r="BW140" s="90"/>
     </row>
-    <row r="141" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="92"/>
-      <c r="D141" s="93"/>
+    <row r="141" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="93"/>
+      <c r="D141" s="84"/>
       <c r="E141" s="91"/>
       <c r="F141" s="91"/>
       <c r="G141" s="91"/>
@@ -14943,9 +14634,9 @@
       <c r="BV141" s="90"/>
       <c r="BW141" s="90"/>
     </row>
-    <row r="142" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="92"/>
-      <c r="D142" s="93"/>
+    <row r="142" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="93"/>
+      <c r="D142" s="84"/>
       <c r="E142" s="91"/>
       <c r="F142" s="91"/>
       <c r="G142" s="91"/>
@@ -15027,9 +14718,9 @@
       <c r="BV142" s="90"/>
       <c r="BW142" s="90"/>
     </row>
-    <row r="143" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="92"/>
-      <c r="D143" s="93"/>
+    <row r="143" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="93"/>
+      <c r="D143" s="84"/>
       <c r="E143" s="91"/>
       <c r="F143" s="91"/>
       <c r="G143" s="91"/>
@@ -15111,9 +14802,9 @@
       <c r="BV143" s="90"/>
       <c r="BW143" s="90"/>
     </row>
-    <row r="144" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="92"/>
-      <c r="D144" s="93"/>
+    <row r="144" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="93"/>
+      <c r="D144" s="84"/>
       <c r="E144" s="91"/>
       <c r="F144" s="91"/>
       <c r="G144" s="91"/>
@@ -15195,9 +14886,9 @@
       <c r="BV144" s="90"/>
       <c r="BW144" s="90"/>
     </row>
-    <row r="145" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="92"/>
-      <c r="D145" s="93"/>
+    <row r="145" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="93"/>
+      <c r="D145" s="84"/>
       <c r="E145" s="91"/>
       <c r="F145" s="91"/>
       <c r="G145" s="91"/>
@@ -15279,9 +14970,9 @@
       <c r="BV145" s="90"/>
       <c r="BW145" s="90"/>
     </row>
-    <row r="146" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="92"/>
-      <c r="D146" s="93"/>
+    <row r="146" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="93"/>
+      <c r="D146" s="84"/>
       <c r="E146" s="91"/>
       <c r="F146" s="91"/>
       <c r="G146" s="91"/>
@@ -15363,8 +15054,8 @@
       <c r="BV146" s="90"/>
       <c r="BW146" s="90"/>
     </row>
-    <row r="147" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="92"/>
+    <row r="147" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="93"/>
       <c r="D147" s="84"/>
       <c r="E147" s="91"/>
       <c r="F147" s="91"/>
@@ -15447,8 +15138,8 @@
       <c r="BV147" s="90"/>
       <c r="BW147" s="90"/>
     </row>
-    <row r="148" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="94"/>
+    <row r="148" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="93"/>
       <c r="D148" s="84"/>
       <c r="E148" s="91"/>
       <c r="F148" s="91"/>
@@ -15531,8 +15222,8 @@
       <c r="BV148" s="90"/>
       <c r="BW148" s="90"/>
     </row>
-    <row r="149" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="94"/>
+    <row r="149" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="93"/>
       <c r="D149" s="84"/>
       <c r="E149" s="91"/>
       <c r="F149" s="91"/>
@@ -15615,8 +15306,8 @@
       <c r="BV149" s="90"/>
       <c r="BW149" s="90"/>
     </row>
-    <row r="150" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="92"/>
+    <row r="150" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="93"/>
       <c r="D150" s="84"/>
       <c r="E150" s="91"/>
       <c r="F150" s="91"/>
@@ -15699,8 +15390,8 @@
       <c r="BV150" s="90"/>
       <c r="BW150" s="90"/>
     </row>
-    <row r="151" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="92"/>
+    <row r="151" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="93"/>
       <c r="D151" s="84"/>
       <c r="E151" s="91"/>
       <c r="F151" s="91"/>
@@ -15783,8 +15474,8 @@
       <c r="BV151" s="90"/>
       <c r="BW151" s="90"/>
     </row>
-    <row r="152" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="92"/>
+    <row r="152" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="93"/>
       <c r="D152" s="84"/>
       <c r="E152" s="91"/>
       <c r="F152" s="91"/>
@@ -15867,8 +15558,8 @@
       <c r="BV152" s="90"/>
       <c r="BW152" s="90"/>
     </row>
-    <row r="153" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="92"/>
+    <row r="153" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="93"/>
       <c r="D153" s="84"/>
       <c r="E153" s="91"/>
       <c r="F153" s="91"/>
@@ -15951,8 +15642,8 @@
       <c r="BV153" s="90"/>
       <c r="BW153" s="90"/>
     </row>
-    <row r="154" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="92"/>
+    <row r="154" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="93"/>
       <c r="D154" s="84"/>
       <c r="E154" s="91"/>
       <c r="F154" s="91"/>
@@ -16035,8 +15726,8 @@
       <c r="BV154" s="90"/>
       <c r="BW154" s="90"/>
     </row>
-    <row r="155" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="92"/>
+    <row r="155" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="93"/>
       <c r="D155" s="84"/>
       <c r="E155" s="91"/>
       <c r="F155" s="91"/>
@@ -16119,136 +15810,136 @@
       <c r="BV155" s="90"/>
       <c r="BW155" s="90"/>
     </row>
-    <row r="156" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="64"/>
-      <c r="D156" s="95" t="s">
+      <c r="D156" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E156" s="96">
+      <c r="E156" s="95">
         <f t="shared" ref="E156:AI156" si="13">COUNT(E4:E155)</f>
         <v>0</v>
       </c>
-      <c r="F156" s="96">
+      <c r="F156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G156" s="96">
+      <c r="G156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H156" s="96">
+      <c r="H156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I156" s="96">
+      <c r="I156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J156" s="96">
+      <c r="J156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K156" s="96">
+      <c r="K156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L156" s="96">
+      <c r="L156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M156" s="96">
+      <c r="M156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N156" s="96">
+      <c r="N156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O156" s="96">
+      <c r="O156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P156" s="96">
+      <c r="P156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q156" s="96">
+      <c r="Q156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R156" s="96">
+      <c r="R156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S156" s="96">
+      <c r="S156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T156" s="96">
+      <c r="T156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U156" s="96">
+      <c r="U156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V156" s="96">
+      <c r="V156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W156" s="96">
+      <c r="W156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X156" s="96">
+      <c r="X156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y156" s="96">
+      <c r="Y156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z156" s="96">
+      <c r="Z156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA156" s="96">
+      <c r="AA156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AB156" s="96">
+      <c r="AB156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC156" s="96">
+      <c r="AC156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD156" s="96">
+      <c r="AD156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE156" s="96">
+      <c r="AE156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF156" s="96">
+      <c r="AF156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AG156" s="96">
+      <c r="AG156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AH156" s="96">
+      <c r="AH156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AI156" s="96">
+      <c r="AI156" s="95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AJ156" s="97">
+      <c r="AJ156" s="96">
         <f>SUM(E156:AI156)</f>
         <v>0</v>
       </c>
@@ -16298,136 +15989,136 @@
       <c r="BV156" s="90"/>
       <c r="BW156" s="90"/>
     </row>
-    <row r="157" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="64"/>
-      <c r="D157" s="95" t="s">
+      <c r="D157" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E157" s="98">
+      <c r="E157" s="97">
         <f t="shared" ref="E157:AI157" si="14">SUBTOTAL(9,E4:E155)</f>
         <v>0</v>
       </c>
-      <c r="F157" s="98">
+      <c r="F157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G157" s="98">
+      <c r="G157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H157" s="98">
+      <c r="H157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I157" s="98">
+      <c r="I157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J157" s="98">
+      <c r="J157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K157" s="98">
+      <c r="K157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L157" s="98">
+      <c r="L157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M157" s="98">
+      <c r="M157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N157" s="98">
+      <c r="N157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O157" s="98">
+      <c r="O157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P157" s="98">
+      <c r="P157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q157" s="98">
+      <c r="Q157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R157" s="98">
+      <c r="R157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S157" s="98">
+      <c r="S157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T157" s="98">
+      <c r="T157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U157" s="98">
+      <c r="U157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V157" s="98">
+      <c r="V157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W157" s="98">
+      <c r="W157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X157" s="98">
+      <c r="X157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y157" s="98">
+      <c r="Y157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z157" s="98">
+      <c r="Z157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA157" s="98">
+      <c r="AA157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB157" s="98">
+      <c r="AB157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC157" s="98">
+      <c r="AC157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD157" s="98">
+      <c r="AD157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE157" s="98">
+      <c r="AE157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF157" s="98">
+      <c r="AF157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG157" s="98">
+      <c r="AG157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH157" s="98">
+      <c r="AH157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AI157" s="98">
+      <c r="AI157" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ157" s="99">
+      <c r="AJ157" s="98">
         <f>SUM(E157:AI157)</f>
         <v>0</v>
       </c>
@@ -16474,43 +16165,43 @@
       <c r="BV157" s="90"/>
       <c r="BW157" s="90"/>
     </row>
-    <row r="158" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="64"/>
-      <c r="D158" s="95" t="s">
+      <c r="D158" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="E158" s="100"/>
-      <c r="F158" s="100"/>
-      <c r="G158" s="100"/>
-      <c r="H158" s="100"/>
-      <c r="I158" s="100"/>
-      <c r="J158" s="100"/>
-      <c r="K158" s="100"/>
-      <c r="L158" s="100"/>
-      <c r="M158" s="100"/>
-      <c r="N158" s="100"/>
-      <c r="O158" s="100"/>
-      <c r="P158" s="100"/>
-      <c r="Q158" s="100"/>
-      <c r="R158" s="101"/>
-      <c r="S158" s="101"/>
-      <c r="T158" s="101"/>
-      <c r="U158" s="101"/>
-      <c r="V158" s="101"/>
-      <c r="W158" s="101"/>
-      <c r="X158" s="100"/>
-      <c r="Y158" s="101"/>
-      <c r="Z158" s="101"/>
+      <c r="E158" s="99"/>
+      <c r="F158" s="99"/>
+      <c r="G158" s="99"/>
+      <c r="H158" s="99"/>
+      <c r="I158" s="99"/>
+      <c r="J158" s="99"/>
+      <c r="K158" s="99"/>
+      <c r="L158" s="99"/>
+      <c r="M158" s="99"/>
+      <c r="N158" s="99"/>
+      <c r="O158" s="99"/>
+      <c r="P158" s="99"/>
+      <c r="Q158" s="99"/>
+      <c r="R158" s="100"/>
+      <c r="S158" s="100"/>
+      <c r="T158" s="100"/>
+      <c r="U158" s="100"/>
+      <c r="V158" s="100"/>
+      <c r="W158" s="100"/>
+      <c r="X158" s="99"/>
+      <c r="Y158" s="100"/>
+      <c r="Z158" s="100"/>
       <c r="AA158" s="92"/>
-      <c r="AB158" s="101"/>
-      <c r="AC158" s="101"/>
-      <c r="AD158" s="101"/>
-      <c r="AE158" s="101"/>
+      <c r="AB158" s="100"/>
+      <c r="AC158" s="100"/>
+      <c r="AD158" s="100"/>
+      <c r="AE158" s="100"/>
       <c r="AF158" s="92"/>
       <c r="AG158" s="92"/>
       <c r="AH158" s="92"/>
       <c r="AI158" s="92"/>
-      <c r="AJ158" s="97">
+      <c r="AJ158" s="96">
         <f>SUM(E158:AI158)</f>
         <v>0</v>
       </c>
@@ -16525,152 +16216,152 @@
       </c>
       <c r="AQ158" s="160"/>
       <c r="AR158" s="161"/>
-      <c r="AS158" s="102">
+      <c r="AS158" s="101">
         <f t="shared" ref="AS158:BW158" si="15">SUM(AS4:AS157)</f>
         <v>0</v>
       </c>
-      <c r="AT158" s="102">
+      <c r="AT158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AU158" s="102">
+      <c r="AU158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AV158" s="102">
+      <c r="AV158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AW158" s="102">
+      <c r="AW158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AX158" s="102">
+      <c r="AX158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AY158" s="102">
+      <c r="AY158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AZ158" s="102">
+      <c r="AZ158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA158" s="102">
+      <c r="BA158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BB158" s="102">
+      <c r="BB158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BC158" s="102">
+      <c r="BC158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BD158" s="102">
+      <c r="BD158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BE158" s="102">
+      <c r="BE158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BF158" s="102">
+      <c r="BF158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BG158" s="102">
+      <c r="BG158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BH158" s="102">
+      <c r="BH158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BI158" s="102">
+      <c r="BI158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BJ158" s="102">
+      <c r="BJ158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BK158" s="102">
+      <c r="BK158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BL158" s="102">
+      <c r="BL158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BM158" s="102">
+      <c r="BM158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BN158" s="102">
+      <c r="BN158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BO158" s="102">
+      <c r="BO158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BP158" s="102">
+      <c r="BP158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BQ158" s="102">
+      <c r="BQ158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BR158" s="102">
+      <c r="BR158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BS158" s="102">
+      <c r="BS158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BT158" s="102">
+      <c r="BT158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BU158" s="102">
+      <c r="BU158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BV158" s="102">
+      <c r="BV158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BW158" s="102">
+      <c r="BW158" s="101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:75" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E159" s="104"/>
-      <c r="F159" s="104"/>
-      <c r="G159" s="104"/>
-      <c r="H159" s="104"/>
-      <c r="I159" s="104"/>
-      <c r="J159" s="104"/>
-      <c r="K159" s="104"/>
-      <c r="L159" s="104"/>
-      <c r="M159" s="104"/>
-      <c r="N159" s="104"/>
-      <c r="O159" s="104"/>
-      <c r="P159" s="104"/>
-      <c r="Q159" s="104"/>
-      <c r="R159" s="104"/>
-      <c r="S159" s="104"/>
-      <c r="T159" s="104"/>
-      <c r="U159" s="104"/>
-      <c r="V159" s="104"/>
-      <c r="W159" s="104"/>
-      <c r="X159" s="104"/>
+    <row r="159" spans="3:75" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E159" s="103"/>
+      <c r="F159" s="103"/>
+      <c r="G159" s="103"/>
+      <c r="H159" s="103"/>
+      <c r="I159" s="103"/>
+      <c r="J159" s="103"/>
+      <c r="K159" s="103"/>
+      <c r="L159" s="103"/>
+      <c r="M159" s="103"/>
+      <c r="N159" s="103"/>
+      <c r="O159" s="103"/>
+      <c r="P159" s="103"/>
+      <c r="Q159" s="103"/>
+      <c r="R159" s="103"/>
+      <c r="S159" s="103"/>
+      <c r="T159" s="103"/>
+      <c r="U159" s="103"/>
+      <c r="V159" s="103"/>
+      <c r="W159" s="103"/>
+      <c r="X159" s="103"/>
       <c r="Y159" s="62"/>
       <c r="AA159" s="62"/>
       <c r="AB159" s="62"/>
@@ -16686,33 +16377,33 @@
       <c r="AL159" s="62"/>
       <c r="AM159" s="62"/>
     </row>
-    <row r="160" spans="3:75" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="105">
+    <row r="160" spans="3:75" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C160" s="104">
         <v>2022.12</v>
       </c>
-      <c r="D160" s="106" t="s">
+      <c r="D160" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="E160" s="104"/>
-      <c r="F160" s="104"/>
-      <c r="G160" s="104"/>
-      <c r="H160" s="104"/>
-      <c r="I160" s="104"/>
-      <c r="J160" s="104"/>
-      <c r="K160" s="104"/>
-      <c r="L160" s="104"/>
-      <c r="M160" s="104"/>
-      <c r="N160" s="104"/>
-      <c r="O160" s="104"/>
-      <c r="P160" s="104"/>
-      <c r="Q160" s="104"/>
-      <c r="R160" s="104"/>
-      <c r="S160" s="104"/>
-      <c r="T160" s="104"/>
-      <c r="U160" s="104"/>
-      <c r="V160" s="104"/>
-      <c r="W160" s="104"/>
-      <c r="X160" s="104"/>
+      <c r="E160" s="103"/>
+      <c r="F160" s="103"/>
+      <c r="G160" s="103"/>
+      <c r="H160" s="103"/>
+      <c r="I160" s="103"/>
+      <c r="J160" s="103"/>
+      <c r="K160" s="103"/>
+      <c r="L160" s="103"/>
+      <c r="M160" s="103"/>
+      <c r="N160" s="103"/>
+      <c r="O160" s="103"/>
+      <c r="P160" s="103"/>
+      <c r="Q160" s="103"/>
+      <c r="R160" s="103"/>
+      <c r="S160" s="103"/>
+      <c r="T160" s="103"/>
+      <c r="U160" s="103"/>
+      <c r="V160" s="103"/>
+      <c r="W160" s="103"/>
+      <c r="X160" s="103"/>
       <c r="Y160" s="62"/>
       <c r="Z160" s="62"/>
       <c r="AA160" s="62"/>
@@ -16729,11 +16420,11 @@
       <c r="AL160" s="62"/>
       <c r="AM160" s="62"/>
     </row>
-    <row r="161" spans="3:36" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D161" s="107" t="s">
+      <c r="D161" s="102" t="s">
         <v>36</v>
       </c>
       <c r="E161" s="62"/>
@@ -16768,7 +16459,7 @@
       <c r="AI161" s="62"/>
       <c r="AJ161" s="62"/>
     </row>
-    <row r="162" spans="3:36" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="62"/>
@@ -16802,7 +16493,7 @@
       <c r="AI162" s="62"/>
       <c r="AJ162" s="62"/>
     </row>
-    <row r="163" spans="3:36" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="62"/>
@@ -16836,7 +16527,7 @@
       <c r="AI163" s="62"/>
       <c r="AJ163" s="62"/>
     </row>
-    <row r="164" spans="3:36" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="62"/>
@@ -16870,7 +16561,7 @@
       <c r="AI164" s="62"/>
       <c r="AJ164" s="62"/>
     </row>
-    <row r="165" spans="3:36" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="62"/>
@@ -16904,7 +16595,7 @@
       <c r="AI165" s="62"/>
       <c r="AJ165" s="62"/>
     </row>
-    <row r="166" spans="3:36" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="62"/>
@@ -16938,7 +16629,7 @@
       <c r="AI166" s="62"/>
       <c r="AJ166" s="62"/>
     </row>
-    <row r="167" spans="3:36" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="62"/>
@@ -16972,37 +16663,37 @@
       <c r="AI167" s="62"/>
       <c r="AJ167" s="62"/>
     </row>
-    <row r="168" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="62"/>
       <c r="F198" s="62"/>
       <c r="G198" s="62"/>
@@ -17560,25 +17251,25 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="35" customWidth="1"/>
     <col min="3" max="3" width="13" style="35" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="35" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="35" hidden="1" customWidth="1"/>
     <col min="5" max="7" width="13" style="35" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="35" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="35" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="35" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="35" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="35" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="35" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="35" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="35" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" style="35" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" style="35" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="35" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="35" customWidth="1"/>
+    <col min="24" max="24" width="12.125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>2024</v>
       </c>
@@ -17603,8 +17294,8 @@
       <c r="W2" s="22"/>
       <c r="X2" s="23"/>
     </row>
-    <row r="3" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111">
+    <row r="3" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107">
         <v>45474</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -17613,7 +17304,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -17629,13 +17320,13 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="I6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I7" s="21">
         <v>0.33333333333333331</v>
       </c>
@@ -17644,7 +17335,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -17688,15 +17379,15 @@
       <c r="O8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="112" t="s">
-        <v>87</v>
+      <c r="P8" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="108" t="s">
+        <v>39</v>
       </c>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36">
         <f>A3</f>
         <v>45474</v>
@@ -17752,7 +17443,7 @@
       </c>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37">
         <f t="shared" ref="A10:A39" si="7">A9+1</f>
         <v>45475</v>
@@ -17808,7 +17499,7 @@
       </c>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37">
         <f t="shared" si="7"/>
         <v>45476</v>
@@ -17864,7 +17555,7 @@
       </c>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37">
         <f t="shared" si="7"/>
         <v>45477</v>
@@ -17920,7 +17611,7 @@
       </c>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37">
         <f t="shared" si="7"/>
         <v>45478</v>
@@ -17976,7 +17667,7 @@
       </c>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="37">
         <f t="shared" si="7"/>
         <v>45479</v>
@@ -18032,7 +17723,7 @@
       </c>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="37">
         <f t="shared" si="7"/>
         <v>45480</v>
@@ -18088,7 +17779,7 @@
       </c>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="37">
         <f t="shared" si="7"/>
         <v>45481</v>
@@ -18145,7 +17836,7 @@
       <c r="V16" s="25"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="37">
         <f t="shared" si="7"/>
         <v>45482</v>
@@ -18199,7 +17890,7 @@
       <c r="V17" s="25"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37">
         <f t="shared" si="7"/>
         <v>45483</v>
@@ -18253,7 +17944,7 @@
       <c r="V18" s="25"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37">
         <f t="shared" si="7"/>
         <v>45484</v>
@@ -18307,7 +17998,7 @@
       <c r="V19" s="25"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="37">
         <f t="shared" si="7"/>
         <v>45485</v>
@@ -18361,7 +18052,7 @@
       <c r="V20" s="25"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="37">
         <f t="shared" si="7"/>
         <v>45486</v>
@@ -18415,7 +18106,7 @@
       <c r="V21" s="25"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37">
         <f t="shared" si="7"/>
         <v>45487</v>
@@ -18469,7 +18160,7 @@
       <c r="V22" s="25"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="37">
         <f t="shared" si="7"/>
         <v>45488</v>
@@ -18523,7 +18214,7 @@
       <c r="V23" s="25"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="37">
         <f t="shared" si="7"/>
         <v>45489</v>
@@ -18577,7 +18268,7 @@
       <c r="V24" s="25"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="37">
         <f t="shared" si="7"/>
         <v>45490</v>
@@ -18631,7 +18322,7 @@
       <c r="V25" s="25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="37">
         <f t="shared" si="7"/>
         <v>45491</v>
@@ -18685,7 +18376,7 @@
       <c r="V26" s="25"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="37">
         <f t="shared" si="7"/>
         <v>45492</v>
@@ -18739,7 +18430,7 @@
       <c r="V27" s="25"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="37">
         <f t="shared" si="7"/>
         <v>45493</v>
@@ -18793,7 +18484,7 @@
       <c r="V28" s="25"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="37">
         <f t="shared" si="7"/>
         <v>45494</v>
@@ -18847,7 +18538,7 @@
       <c r="V29" s="25"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="37">
         <f t="shared" si="7"/>
         <v>45495</v>
@@ -18901,7 +18592,7 @@
       <c r="V30" s="25"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="37">
         <f t="shared" si="7"/>
         <v>45496</v>
@@ -18955,7 +18646,7 @@
       <c r="V31" s="25"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="37">
         <f t="shared" si="7"/>
         <v>45497</v>
@@ -19009,7 +18700,7 @@
       <c r="V32" s="25"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="37">
         <f t="shared" si="7"/>
         <v>45498</v>
@@ -19063,7 +18754,7 @@
       <c r="V33" s="25"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="37">
         <f t="shared" si="7"/>
         <v>45499</v>
@@ -19117,7 +18808,7 @@
       <c r="V34" s="25"/>
       <c r="X34"/>
     </row>
-    <row r="35" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="37">
         <f t="shared" si="7"/>
         <v>45500</v>
@@ -19171,7 +18862,7 @@
       <c r="V35" s="25"/>
       <c r="X35"/>
     </row>
-    <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="37">
         <f t="shared" si="7"/>
         <v>45501</v>
@@ -19225,7 +18916,7 @@
       <c r="V36" s="25"/>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="37">
         <f t="shared" si="7"/>
         <v>45502</v>
@@ -19279,7 +18970,7 @@
       <c r="V37" s="25"/>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="37">
         <f t="shared" si="7"/>
         <v>45503</v>
@@ -19324,7 +19015,7 @@
       <c r="V38" s="25"/>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="42">
         <f t="shared" si="7"/>
         <v>45504</v>
@@ -19378,7 +19069,7 @@
       <c r="V39" s="25"/>
       <c r="X39"/>
     </row>
-    <row r="40" spans="1:24" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A40" s="33" t="s">
         <v>20</v>
       </c>
@@ -19428,7 +19119,7 @@
       <c r="V40" s="25"/>
       <c r="X40"/>
     </row>
-    <row r="41" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="10"/>
       <c r="C41" s="4"/>
@@ -19466,19 +19157,19 @@
       <c r="V41" s="25"/>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="X42" s="25"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="X43" s="25"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="X44" s="25"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="X45" s="25"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="X46" s="25"/>
     </row>
   </sheetData>
@@ -19510,566 +19201,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39404C45-C817-402C-A421-020419F6E3FC}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>70004834</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>70004840</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>70004887</v>
-      </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>70004963</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>70005156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>70005305</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>70005312</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>70005490</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>70005492</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>70005494</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>70005561</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>70005563</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>70005585</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>70005596</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>70005597</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>70005630</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>70005636</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>70005761</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>70005762</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>70005764</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>70005765</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>70005768</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>70005770</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>70005771</v>
-      </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>70005772</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>70005773</v>
-      </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>70005774</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>70005830</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>70005972</v>
-      </c>
-      <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>70006081</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>70006082</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>70006083</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>70006084</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>70006210</v>
-      </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>70006211</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>70006426</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>70006428</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>70006429</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>70006438</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>70006456</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>70006457</v>
-      </c>
-      <c r="B41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>70006469</v>
-      </c>
-      <c r="B42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>70006486</v>
-      </c>
-      <c r="B43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>70006487</v>
-      </c>
-      <c r="B44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>70006527</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>70006528</v>
-      </c>
-      <c r="B46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>70006529</v>
-      </c>
-      <c r="B47" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>70006530</v>
-      </c>
-      <c r="B48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="109"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="109"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="109"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="109"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="109"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="109"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="109"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="147" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="147" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20089,19 +19235,19 @@
       <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="10.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="10.125" style="35" customWidth="1"/>
     <col min="12" max="13" width="10" style="35" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="35" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="35" customWidth="1"/>
     <col min="15" max="15" width="9" style="35" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="35" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="35" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>2024</v>
       </c>
@@ -20126,8 +19272,8 @@
         <v>1.208333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111">
+    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107">
         <f>'[1]0SHEET'!D1</f>
         <v>45474</v>
       </c>
@@ -20137,7 +19283,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -20150,20 +19296,20 @@
       <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="110" t="s">
-        <v>88</v>
+      <c r="I4" s="106" t="s">
+        <v>40</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="M4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="L6" s="20" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L7" s="21">
         <v>0.33333333333333331</v>
       </c>
@@ -20172,11 +19318,11 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+    <row r="8" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="131" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -20192,55 +19338,55 @@
       <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="137" t="s">
+      <c r="H8" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="114" t="s">
+      <c r="I8" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="116" t="s">
+      <c r="N8" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="116" t="s">
+      <c r="P8" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="117" t="s">
+      <c r="Q8" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="113" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118">
+    <row r="9" spans="1:27" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="114">
         <f>A3</f>
         <v>45474</v>
       </c>
-      <c r="B9" s="136" t="str">
+      <c r="B9" s="132" t="str">
         <f t="shared" ref="B9:B39" si="0">TEXT(A9,"aaa")</f>
         <v>月</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="119" t="str">
+      <c r="D9" s="115" t="str">
         <f t="array" ref="D9">_xlfn.IFS(C9&lt;0.5,"朝",AND(C9&lt;22/24),"22前",AND(C9&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E9" s="175"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="47"/>
       <c r="G9" s="45"/>
       <c r="H9" s="46">
@@ -20283,10 +19429,10 @@
         <f t="array" ref="Q9">_xlfn.IFS(D9="朝",,AND(D9="22前",E9&gt;5/24),5/24+1-H9-22/24,AND(D9="22前",E9&lt;5/24),E9+1-H9-22/24,AND(D9="22後",E9&gt;5/24),5/24+1-H9-C9,AND(D9="22後",E9&lt;5/24),E9+1-H9-C9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="120"/>
-    </row>
-    <row r="10" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121">
+      <c r="R9" s="116"/>
+    </row>
+    <row r="10" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="117">
         <f t="shared" ref="A10:A39" si="9">A9+1</f>
         <v>45475</v>
       </c>
@@ -20295,11 +19441,11 @@
         <v>火</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="119" t="str">
+      <c r="D10" s="115" t="str">
         <f t="array" ref="D10">_xlfn.IFS(C10&lt;0.5,"朝",AND(C10&lt;22/24),"22前",AND(C10&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E10" s="176"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="48"/>
       <c r="G10" s="50"/>
       <c r="H10" s="51">
@@ -20342,10 +19488,10 @@
         <f t="array" ref="Q10">_xlfn.IFS(D10="朝",,AND(D10="22前",E10&gt;5/24),5/24+1-H10-22/24,AND(D10="22前",E10&lt;5/24),E10+1-H10-22/24,AND(D10="22後",E10&gt;5/24),5/24+1-H10-C10,AND(D10="22後",E10&lt;5/24),E10+1-H10-C10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="122"/>
-    </row>
-    <row r="11" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="121">
+      <c r="R10" s="118"/>
+    </row>
+    <row r="11" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="117">
         <f t="shared" si="9"/>
         <v>45476</v>
       </c>
@@ -20354,11 +19500,11 @@
         <v>水</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="119" t="str">
+      <c r="D11" s="115" t="str">
         <f t="array" ref="D11">_xlfn.IFS(C11&lt;0.5,"朝",AND(C11&lt;22/24),"22前",AND(C11&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E11" s="176"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="48"/>
       <c r="G11" s="50"/>
       <c r="H11" s="51">
@@ -20401,10 +19547,10 @@
         <f t="array" ref="Q11">_xlfn.IFS(D11="朝",,AND(D11="22前",E11&gt;5/24),5/24+1-H11-22/24,AND(D11="22前",E11&lt;5/24),E11+1-H11-22/24,AND(D11="22後",E11&gt;5/24),5/24+1-H11-C11,AND(D11="22後",E11&lt;5/24),E11+1-H11-C11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="122"/>
-    </row>
-    <row r="12" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="121">
+      <c r="R11" s="118"/>
+    </row>
+    <row r="12" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="117">
         <f t="shared" si="9"/>
         <v>45477</v>
       </c>
@@ -20413,11 +19559,11 @@
         <v>木</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="119" t="str">
+      <c r="D12" s="115" t="str">
         <f t="array" ref="D12">_xlfn.IFS(C12&lt;0.5,"朝",AND(C12&lt;22/24),"22前",AND(C12&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E12" s="176"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="48"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51">
@@ -20460,10 +19606,10 @@
         <f t="array" ref="Q12">_xlfn.IFS(D12="朝",,AND(D12="22前",E12&gt;5/24),5/24+1-H12-22/24,AND(D12="22前",E12&lt;5/24),E12+1-H12-22/24,AND(D12="22後",E12&gt;5/24),5/24+1-H12-C12,AND(D12="22後",E12&lt;5/24),E12+1-H12-C12)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="122"/>
-    </row>
-    <row r="13" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121">
+      <c r="R12" s="118"/>
+    </row>
+    <row r="13" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="117">
         <f t="shared" si="9"/>
         <v>45478</v>
       </c>
@@ -20472,11 +19618,11 @@
         <v>金</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="119" t="str">
+      <c r="D13" s="115" t="str">
         <f t="array" ref="D13">_xlfn.IFS(C13&lt;0.5,"朝",AND(C13&lt;22/24),"22前",AND(C13&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E13" s="176"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="48"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51">
@@ -20519,10 +19665,10 @@
         <f t="array" ref="Q13">_xlfn.IFS(D13="朝",,AND(D13="22前",E13&gt;5/24),5/24+1-H13-22/24,AND(D13="22前",E13&lt;5/24),E13+1-H13-22/24,AND(D13="22後",E13&gt;5/24),5/24+1-H13-C13,AND(D13="22後",E13&lt;5/24),E13+1-H13-C13)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="122"/>
-    </row>
-    <row r="14" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121">
+      <c r="R13" s="118"/>
+    </row>
+    <row r="14" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="117">
         <f t="shared" si="9"/>
         <v>45479</v>
       </c>
@@ -20531,11 +19677,11 @@
         <v>土</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="119" t="str">
+      <c r="D14" s="115" t="str">
         <f t="array" ref="D14">_xlfn.IFS(C14&lt;0.5,"朝",AND(C14&lt;22/24),"22前",AND(C14&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E14" s="176"/>
+      <c r="E14" s="145"/>
       <c r="F14" s="48"/>
       <c r="G14" s="50"/>
       <c r="H14" s="51">
@@ -20578,10 +19724,10 @@
         <f t="array" ref="Q14">_xlfn.IFS(D14="朝",,AND(D14="22前",E14&gt;5/24),5/24+1-H14-22/24,AND(D14="22前",E14&lt;5/24),E14+1-H14-22/24,AND(D14="22後",E14&gt;5/24),5/24+1-H14-C14,AND(D14="22後",E14&lt;5/24),E14+1-H14-C14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="122"/>
-    </row>
-    <row r="15" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="121">
+      <c r="R14" s="118"/>
+    </row>
+    <row r="15" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="117">
         <f t="shared" si="9"/>
         <v>45480</v>
       </c>
@@ -20590,11 +19736,11 @@
         <v>日</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="119" t="str">
+      <c r="D15" s="115" t="str">
         <f t="array" ref="D15">_xlfn.IFS(C15&lt;0.5,"朝",AND(C15&lt;22/24),"22前",AND(C15&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E15" s="176"/>
+      <c r="E15" s="145"/>
       <c r="F15" s="48"/>
       <c r="G15" s="50"/>
       <c r="H15" s="51">
@@ -20637,10 +19783,10 @@
         <f t="array" ref="Q15">_xlfn.IFS(D15="朝",,AND(D15="22前",E15&gt;5/24),5/24+1-H15-22/24,AND(D15="22前",E15&lt;5/24),E15+1-H15-22/24,AND(D15="22後",E15&gt;5/24),5/24+1-H15-C15,AND(D15="22後",E15&lt;5/24),E15+1-H15-C15)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="122"/>
-    </row>
-    <row r="16" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121">
+      <c r="R15" s="118"/>
+    </row>
+    <row r="16" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="117">
         <f t="shared" si="9"/>
         <v>45481</v>
       </c>
@@ -20649,11 +19795,11 @@
         <v>月</v>
       </c>
       <c r="C16" s="49"/>
-      <c r="D16" s="119" t="str">
+      <c r="D16" s="115" t="str">
         <f t="array" ref="D16">_xlfn.IFS(C16&lt;0.5,"朝",AND(C16&lt;22/24),"22前",AND(C16&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E16" s="176"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="48"/>
       <c r="G16" s="50"/>
       <c r="H16" s="51">
@@ -20696,10 +19842,10 @@
         <f t="array" ref="Q16">_xlfn.IFS(D16="朝",,AND(D16="22前",E16&gt;5/24),5/24+1-H16-22/24,AND(D16="22前",E16&lt;5/24),E16+1-H16-22/24,AND(D16="22後",E16&gt;5/24),5/24+1-H16-C16,AND(D16="22後",E16&lt;5/24),E16+1-H16-C16)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="122"/>
-    </row>
-    <row r="17" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121">
+      <c r="R16" s="118"/>
+    </row>
+    <row r="17" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="117">
         <f t="shared" si="9"/>
         <v>45482</v>
       </c>
@@ -20708,11 +19854,11 @@
         <v>火</v>
       </c>
       <c r="C17" s="49"/>
-      <c r="D17" s="119" t="str">
+      <c r="D17" s="115" t="str">
         <f t="array" ref="D17">_xlfn.IFS(C17&lt;0.5,"朝",AND(C17&lt;22/24),"22前",AND(C17&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E17" s="176"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="48"/>
       <c r="G17" s="50"/>
       <c r="H17" s="51">
@@ -20755,10 +19901,10 @@
         <f t="array" ref="Q17">_xlfn.IFS(D17="朝",,AND(D17="22前",E17&gt;5/24),5/24+1-H17-22/24,AND(D17="22前",E17&lt;5/24),E17+1-H17-22/24,AND(D17="22後",E17&gt;5/24),5/24+1-H17-C17,AND(D17="22後",E17&lt;5/24),E17+1-H17-C17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="122"/>
-    </row>
-    <row r="18" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121">
+      <c r="R17" s="118"/>
+    </row>
+    <row r="18" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="117">
         <f t="shared" si="9"/>
         <v>45483</v>
       </c>
@@ -20767,11 +19913,11 @@
         <v>水</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="D18" s="119" t="str">
+      <c r="D18" s="115" t="str">
         <f t="array" ref="D18">_xlfn.IFS(C18&lt;0.5,"朝",AND(C18&lt;22/24),"22前",AND(C18&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E18" s="176"/>
+      <c r="E18" s="145"/>
       <c r="F18" s="48"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51">
@@ -20814,10 +19960,10 @@
         <f t="array" ref="Q18">_xlfn.IFS(D18="朝",,AND(D18="22前",E18&gt;5/24),5/24+1-H18-22/24,AND(D18="22前",E18&lt;5/24),E18+1-H18-22/24,AND(D18="22後",E18&gt;5/24),5/24+1-H18-C18,AND(D18="22後",E18&lt;5/24),E18+1-H18-C18)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="122"/>
-    </row>
-    <row r="19" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121">
+      <c r="R18" s="118"/>
+    </row>
+    <row r="19" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="117">
         <f t="shared" si="9"/>
         <v>45484</v>
       </c>
@@ -20826,11 +19972,11 @@
         <v>木</v>
       </c>
       <c r="C19" s="49"/>
-      <c r="D19" s="119" t="str">
+      <c r="D19" s="115" t="str">
         <f t="array" ref="D19">_xlfn.IFS(C19&lt;0.5,"朝",AND(C19&lt;22/24),"22前",AND(C19&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E19" s="176"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="48"/>
       <c r="G19" s="50"/>
       <c r="H19" s="51">
@@ -20873,10 +20019,10 @@
         <f t="array" ref="Q19">_xlfn.IFS(D19="朝",,AND(D19="22前",E19&gt;5/24),5/24+1-H19-22/24,AND(D19="22前",E19&lt;5/24),E19+1-H19-22/24,AND(D19="22後",E19&gt;5/24),5/24+1-H19-C19,AND(D19="22後",E19&lt;5/24),E19+1-H19-C19)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="122"/>
-    </row>
-    <row r="20" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="121">
+      <c r="R19" s="118"/>
+    </row>
+    <row r="20" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="117">
         <f t="shared" si="9"/>
         <v>45485</v>
       </c>
@@ -20885,11 +20031,11 @@
         <v>金</v>
       </c>
       <c r="C20" s="49"/>
-      <c r="D20" s="119" t="str">
+      <c r="D20" s="115" t="str">
         <f t="array" ref="D20">_xlfn.IFS(C20&lt;0.5,"朝",AND(C20&lt;22/24),"22前",AND(C20&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E20" s="176"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="48"/>
       <c r="G20" s="50"/>
       <c r="H20" s="51">
@@ -20932,10 +20078,10 @@
         <f t="array" ref="Q20">_xlfn.IFS(D20="朝",,AND(D20="22前",E20&gt;5/24),5/24+1-H20-22/24,AND(D20="22前",E20&lt;5/24),E20+1-H20-22/24,AND(D20="22後",E20&gt;5/24),5/24+1-H20-C20,AND(D20="22後",E20&lt;5/24),E20+1-H20-C20)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="122"/>
-    </row>
-    <row r="21" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121">
+      <c r="R20" s="118"/>
+    </row>
+    <row r="21" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="117">
         <f t="shared" si="9"/>
         <v>45486</v>
       </c>
@@ -20944,11 +20090,11 @@
         <v>土</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="119" t="str">
+      <c r="D21" s="115" t="str">
         <f t="array" ref="D21">_xlfn.IFS(C21&lt;0.5,"朝",AND(C21&lt;22/24),"22前",AND(C21&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E21" s="176"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="48"/>
       <c r="G21" s="50"/>
       <c r="H21" s="51">
@@ -20991,10 +20137,10 @@
         <f t="array" ref="Q21">_xlfn.IFS(D21="朝",,AND(D21="22前",E21&gt;5/24),5/24+1-H21-22/24,AND(D21="22前",E21&lt;5/24),E21+1-H21-22/24,AND(D21="22後",E21&gt;5/24),5/24+1-H21-C21,AND(D21="22後",E21&lt;5/24),E21+1-H21-C21)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="122"/>
-    </row>
-    <row r="22" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121">
+      <c r="R21" s="118"/>
+    </row>
+    <row r="22" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="117">
         <f t="shared" si="9"/>
         <v>45487</v>
       </c>
@@ -21003,11 +20149,11 @@
         <v>日</v>
       </c>
       <c r="C22" s="49"/>
-      <c r="D22" s="119" t="str">
+      <c r="D22" s="115" t="str">
         <f t="array" ref="D22">_xlfn.IFS(C22&lt;0.5,"朝",AND(C22&lt;22/24),"22前",AND(C22&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E22" s="176"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="48"/>
       <c r="G22" s="50"/>
       <c r="H22" s="51">
@@ -21050,10 +20196,10 @@
         <f t="array" ref="Q22">_xlfn.IFS(D22="朝",,AND(D22="22前",E22&gt;5/24),5/24+1-H22-22/24,AND(D22="22前",E22&lt;5/24),E22+1-H22-22/24,AND(D22="22後",E22&gt;5/24),5/24+1-H22-C22,AND(D22="22後",E22&lt;5/24),E22+1-H22-C22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="122"/>
-    </row>
-    <row r="23" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121">
+      <c r="R22" s="118"/>
+    </row>
+    <row r="23" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="117">
         <f t="shared" si="9"/>
         <v>45488</v>
       </c>
@@ -21062,11 +20208,11 @@
         <v>月</v>
       </c>
       <c r="C23" s="49"/>
-      <c r="D23" s="119" t="str">
+      <c r="D23" s="115" t="str">
         <f t="array" ref="D23">_xlfn.IFS(C23&lt;0.5,"朝",AND(C23&lt;22/24),"22前",AND(C23&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E23" s="176"/>
+      <c r="E23" s="145"/>
       <c r="F23" s="48"/>
       <c r="G23" s="50"/>
       <c r="H23" s="51">
@@ -21109,10 +20255,10 @@
         <f t="array" ref="Q23">_xlfn.IFS(D23="朝",,AND(D23="22前",E23&gt;5/24),5/24+1-H23-22/24,AND(D23="22前",E23&lt;5/24),E23+1-H23-22/24,AND(D23="22後",E23&gt;5/24),5/24+1-H23-C23,AND(D23="22後",E23&lt;5/24),E23+1-H23-C23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="122"/>
-    </row>
-    <row r="24" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121">
+      <c r="R23" s="118"/>
+    </row>
+    <row r="24" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="117">
         <f t="shared" si="9"/>
         <v>45489</v>
       </c>
@@ -21121,11 +20267,11 @@
         <v>火</v>
       </c>
       <c r="C24" s="49"/>
-      <c r="D24" s="119" t="str">
+      <c r="D24" s="115" t="str">
         <f t="array" ref="D24">_xlfn.IFS(C24&lt;0.5,"朝",AND(C24&lt;22/24),"22前",AND(C24&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E24" s="176"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="48"/>
       <c r="G24" s="50"/>
       <c r="H24" s="51">
@@ -21168,10 +20314,10 @@
         <f t="array" ref="Q24">_xlfn.IFS(D24="朝",,AND(D24="22前",E24&gt;5/24),5/24+1-H24-22/24,AND(D24="22前",E24&lt;5/24),E24+1-H24-22/24,AND(D24="22後",E24&gt;5/24),5/24+1-H24-C24,AND(D24="22後",E24&lt;5/24),E24+1-H24-C24)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="122"/>
-    </row>
-    <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="121">
+      <c r="R24" s="118"/>
+    </row>
+    <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="117">
         <f t="shared" si="9"/>
         <v>45490</v>
       </c>
@@ -21180,11 +20326,11 @@
         <v>水</v>
       </c>
       <c r="C25" s="49"/>
-      <c r="D25" s="119" t="str">
+      <c r="D25" s="115" t="str">
         <f t="array" ref="D25">_xlfn.IFS(C25&lt;0.5,"朝",AND(C25&lt;22/24),"22前",AND(C25&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E25" s="176"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="48"/>
       <c r="G25" s="50"/>
       <c r="H25" s="51">
@@ -21227,10 +20373,10 @@
         <f t="array" ref="Q25">_xlfn.IFS(D25="朝",,AND(D25="22前",E25&gt;5/24),5/24+1-H25-22/24,AND(D25="22前",E25&lt;5/24),E25+1-H25-22/24,AND(D25="22後",E25&gt;5/24),5/24+1-H25-C25,AND(D25="22後",E25&lt;5/24),E25+1-H25-C25)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="122"/>
-    </row>
-    <row r="26" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121">
+      <c r="R25" s="118"/>
+    </row>
+    <row r="26" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="117">
         <f t="shared" si="9"/>
         <v>45491</v>
       </c>
@@ -21239,11 +20385,11 @@
         <v>木</v>
       </c>
       <c r="C26" s="49"/>
-      <c r="D26" s="119" t="str">
+      <c r="D26" s="115" t="str">
         <f t="array" ref="D26">_xlfn.IFS(C26&lt;0.5,"朝",AND(C26&lt;22/24),"22前",AND(C26&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E26" s="176"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="48"/>
       <c r="G26" s="50"/>
       <c r="H26" s="51">
@@ -21286,10 +20432,10 @@
         <f t="array" ref="Q26">_xlfn.IFS(D26="朝",,AND(D26="22前",E26&gt;5/24),5/24+1-H26-22/24,AND(D26="22前",E26&lt;5/24),E26+1-H26-22/24,AND(D26="22後",E26&gt;5/24),5/24+1-H26-C26,AND(D26="22後",E26&lt;5/24),E26+1-H26-C26)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="122"/>
-    </row>
-    <row r="27" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="121">
+      <c r="R26" s="118"/>
+    </row>
+    <row r="27" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="117">
         <f t="shared" si="9"/>
         <v>45492</v>
       </c>
@@ -21298,11 +20444,11 @@
         <v>金</v>
       </c>
       <c r="C27" s="49"/>
-      <c r="D27" s="119" t="str">
+      <c r="D27" s="115" t="str">
         <f t="array" ref="D27">_xlfn.IFS(C27&lt;0.5,"朝",AND(C27&lt;22/24),"22前",AND(C27&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E27" s="176"/>
+      <c r="E27" s="145"/>
       <c r="F27" s="48"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51">
@@ -21345,10 +20491,10 @@
         <f t="array" ref="Q27">_xlfn.IFS(D27="朝",,AND(D27="22前",E27&gt;5/24),5/24+1-H27-22/24,AND(D27="22前",E27&lt;5/24),E27+1-H27-22/24,AND(D27="22後",E27&gt;5/24),5/24+1-H27-C27,AND(D27="22後",E27&lt;5/24),E27+1-H27-C27)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="122"/>
-    </row>
-    <row r="28" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="121">
+      <c r="R27" s="118"/>
+    </row>
+    <row r="28" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="117">
         <f t="shared" si="9"/>
         <v>45493</v>
       </c>
@@ -21357,11 +20503,11 @@
         <v>土</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="119" t="str">
+      <c r="D28" s="115" t="str">
         <f t="array" ref="D28">_xlfn.IFS(C28&lt;0.5,"朝",AND(C28&lt;22/24),"22前",AND(C28&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E28" s="176"/>
+      <c r="E28" s="145"/>
       <c r="F28" s="48"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51">
@@ -21404,10 +20550,10 @@
         <f t="array" ref="Q28">_xlfn.IFS(D28="朝",,AND(D28="22前",E28&gt;5/24),5/24+1-H28-22/24,AND(D28="22前",E28&lt;5/24),E28+1-H28-22/24,AND(D28="22後",E28&gt;5/24),5/24+1-H28-C28,AND(D28="22後",E28&lt;5/24),E28+1-H28-C28)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="122"/>
-    </row>
-    <row r="29" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="121">
+      <c r="R28" s="118"/>
+    </row>
+    <row r="29" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="117">
         <f t="shared" si="9"/>
         <v>45494</v>
       </c>
@@ -21416,11 +20562,11 @@
         <v>日</v>
       </c>
       <c r="C29" s="49"/>
-      <c r="D29" s="119" t="str">
+      <c r="D29" s="115" t="str">
         <f t="array" ref="D29">_xlfn.IFS(C29&lt;0.5,"朝",AND(C29&lt;22/24),"22前",AND(C29&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E29" s="176"/>
+      <c r="E29" s="145"/>
       <c r="F29" s="48"/>
       <c r="G29" s="50"/>
       <c r="H29" s="51">
@@ -21463,10 +20609,10 @@
         <f t="array" ref="Q29">_xlfn.IFS(D29="朝",,AND(D29="22前",E29&gt;5/24),5/24+1-H29-22/24,AND(D29="22前",E29&lt;5/24),E29+1-H29-22/24,AND(D29="22後",E29&gt;5/24),5/24+1-H29-C29,AND(D29="22後",E29&lt;5/24),E29+1-H29-C29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="122"/>
-    </row>
-    <row r="30" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121">
+      <c r="R29" s="118"/>
+    </row>
+    <row r="30" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="117">
         <f t="shared" si="9"/>
         <v>45495</v>
       </c>
@@ -21475,11 +20621,11 @@
         <v>月</v>
       </c>
       <c r="C30" s="49"/>
-      <c r="D30" s="119" t="str">
+      <c r="D30" s="115" t="str">
         <f t="array" ref="D30">_xlfn.IFS(C30&lt;0.5,"朝",AND(C30&lt;22/24),"22前",AND(C30&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E30" s="176"/>
+      <c r="E30" s="145"/>
       <c r="F30" s="48"/>
       <c r="G30" s="50"/>
       <c r="H30" s="51">
@@ -21522,10 +20668,10 @@
         <f t="array" ref="Q30">_xlfn.IFS(D30="朝",,AND(D30="22前",E30&gt;5/24),5/24+1-H30-22/24,AND(D30="22前",E30&lt;5/24),E30+1-H30-22/24,AND(D30="22後",E30&gt;5/24),5/24+1-H30-C30,AND(D30="22後",E30&lt;5/24),E30+1-H30-C30)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="122"/>
-    </row>
-    <row r="31" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="121">
+      <c r="R30" s="118"/>
+    </row>
+    <row r="31" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="117">
         <f t="shared" si="9"/>
         <v>45496</v>
       </c>
@@ -21534,11 +20680,11 @@
         <v>火</v>
       </c>
       <c r="C31" s="49"/>
-      <c r="D31" s="119" t="str">
+      <c r="D31" s="115" t="str">
         <f t="array" ref="D31">_xlfn.IFS(C31&lt;0.5,"朝",AND(C31&lt;22/24),"22前",AND(C31&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E31" s="176"/>
+      <c r="E31" s="145"/>
       <c r="F31" s="48"/>
       <c r="G31" s="50"/>
       <c r="H31" s="51">
@@ -21581,10 +20727,10 @@
         <f t="array" ref="Q31">_xlfn.IFS(D31="朝",,AND(D31="22前",E31&gt;5/24),5/24+1-H31-22/24,AND(D31="22前",E31&lt;5/24),E31+1-H31-22/24,AND(D31="22後",E31&gt;5/24),5/24+1-H31-C31,AND(D31="22後",E31&lt;5/24),E31+1-H31-C31)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="122"/>
-    </row>
-    <row r="32" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="121">
+      <c r="R31" s="118"/>
+    </row>
+    <row r="32" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="117">
         <f t="shared" si="9"/>
         <v>45497</v>
       </c>
@@ -21593,11 +20739,11 @@
         <v>水</v>
       </c>
       <c r="C32" s="49"/>
-      <c r="D32" s="119" t="str">
+      <c r="D32" s="115" t="str">
         <f t="array" ref="D32">_xlfn.IFS(C32&lt;0.5,"朝",AND(C32&lt;22/24),"22前",AND(C32&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E32" s="176"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="48"/>
       <c r="G32" s="50"/>
       <c r="H32" s="51">
@@ -21640,10 +20786,10 @@
         <f t="array" ref="Q32">_xlfn.IFS(D32="朝",,AND(D32="22前",E32&gt;5/24),5/24+1-H32-22/24,AND(D32="22前",E32&lt;5/24),E32+1-H32-22/24,AND(D32="22後",E32&gt;5/24),5/24+1-H32-C32,AND(D32="22後",E32&lt;5/24),E32+1-H32-C32)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="122"/>
-    </row>
-    <row r="33" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="121">
+      <c r="R32" s="118"/>
+    </row>
+    <row r="33" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="117">
         <f t="shared" si="9"/>
         <v>45498</v>
       </c>
@@ -21652,11 +20798,11 @@
         <v>木</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="119" t="str">
+      <c r="D33" s="115" t="str">
         <f t="array" ref="D33">_xlfn.IFS(C33&lt;0.5,"朝",AND(C33&lt;22/24),"22前",AND(C33&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E33" s="176"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="48"/>
       <c r="G33" s="50"/>
       <c r="H33" s="51">
@@ -21699,10 +20845,10 @@
         <f t="array" ref="Q33">_xlfn.IFS(D33="朝",,AND(D33="22前",E33&gt;5/24),5/24+1-H33-22/24,AND(D33="22前",E33&lt;5/24),E33+1-H33-22/24,AND(D33="22後",E33&gt;5/24),5/24+1-H33-C33,AND(D33="22後",E33&lt;5/24),E33+1-H33-C33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="122"/>
-    </row>
-    <row r="34" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="121">
+      <c r="R33" s="118"/>
+    </row>
+    <row r="34" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="117">
         <f t="shared" si="9"/>
         <v>45499</v>
       </c>
@@ -21711,11 +20857,11 @@
         <v>金</v>
       </c>
       <c r="C34" s="49"/>
-      <c r="D34" s="119" t="str">
+      <c r="D34" s="115" t="str">
         <f t="array" ref="D34">_xlfn.IFS(C34&lt;0.5,"朝",AND(C34&lt;22/24),"22前",AND(C34&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E34" s="176"/>
+      <c r="E34" s="145"/>
       <c r="F34" s="48"/>
       <c r="G34" s="50"/>
       <c r="H34" s="51">
@@ -21758,10 +20904,10 @@
         <f t="array" ref="Q34">_xlfn.IFS(D34="朝",,AND(D34="22前",E34&gt;5/24),5/24+1-H34-22/24,AND(D34="22前",E34&lt;5/24),E34+1-H34-22/24,AND(D34="22後",E34&gt;5/24),5/24+1-H34-C34,AND(D34="22後",E34&lt;5/24),E34+1-H34-C34)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="122"/>
-    </row>
-    <row r="35" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="121">
+      <c r="R34" s="118"/>
+    </row>
+    <row r="35" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="117">
         <f t="shared" si="9"/>
         <v>45500</v>
       </c>
@@ -21770,11 +20916,11 @@
         <v>土</v>
       </c>
       <c r="C35" s="49"/>
-      <c r="D35" s="119" t="str">
+      <c r="D35" s="115" t="str">
         <f t="array" ref="D35">_xlfn.IFS(C35&lt;0.5,"朝",AND(C35&lt;22/24),"22前",AND(C35&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E35" s="176"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="48"/>
       <c r="G35" s="50"/>
       <c r="H35" s="51">
@@ -21817,10 +20963,10 @@
         <f t="array" ref="Q35">_xlfn.IFS(D35="朝",,AND(D35="22前",E35&gt;5/24),5/24+1-H35-22/24,AND(D35="22前",E35&lt;5/24),E35+1-H35-22/24,AND(D35="22後",E35&gt;5/24),5/24+1-H35-C35,AND(D35="22後",E35&lt;5/24),E35+1-H35-C35)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="122"/>
-    </row>
-    <row r="36" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="121">
+      <c r="R35" s="118"/>
+    </row>
+    <row r="36" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="117">
         <f t="shared" si="9"/>
         <v>45501</v>
       </c>
@@ -21829,11 +20975,11 @@
         <v>日</v>
       </c>
       <c r="C36" s="49"/>
-      <c r="D36" s="119" t="str">
+      <c r="D36" s="115" t="str">
         <f t="array" ref="D36">_xlfn.IFS(C36&lt;0.5,"朝",AND(C36&lt;22/24),"22前",AND(C36&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E36" s="176"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="48"/>
       <c r="G36" s="50"/>
       <c r="H36" s="51">
@@ -21876,10 +21022,10 @@
         <f t="array" ref="Q36">_xlfn.IFS(D36="朝",,AND(D36="22前",E36&gt;5/24),5/24+1-H36-22/24,AND(D36="22前",E36&lt;5/24),E36+1-H36-22/24,AND(D36="22後",E36&gt;5/24),5/24+1-H36-C36,AND(D36="22後",E36&lt;5/24),E36+1-H36-C36)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="122"/>
-    </row>
-    <row r="37" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="121">
+      <c r="R36" s="118"/>
+    </row>
+    <row r="37" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="117">
         <f t="shared" si="9"/>
         <v>45502</v>
       </c>
@@ -21888,11 +21034,11 @@
         <v>月</v>
       </c>
       <c r="C37" s="49"/>
-      <c r="D37" s="119" t="str">
+      <c r="D37" s="115" t="str">
         <f t="array" ref="D37">_xlfn.IFS(C37&lt;0.5,"朝",AND(C37&lt;22/24),"22前",AND(C37&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E37" s="176"/>
+      <c r="E37" s="145"/>
       <c r="F37" s="48"/>
       <c r="G37" s="50"/>
       <c r="H37" s="51">
@@ -21935,10 +21081,10 @@
         <f t="array" ref="Q37">_xlfn.IFS(D37="朝",,AND(D37="22前",E37&gt;5/24),5/24+1-H37-22/24,AND(D37="22前",E37&lt;5/24),E37+1-H37-22/24,AND(D37="22後",E37&gt;5/24),5/24+1-H37-C37,AND(D37="22後",E37&lt;5/24),E37+1-H37-C37)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="122"/>
-    </row>
-    <row r="38" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="121">
+      <c r="R37" s="118"/>
+    </row>
+    <row r="38" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="117">
         <f t="shared" si="9"/>
         <v>45503</v>
       </c>
@@ -21947,11 +21093,11 @@
         <v>火</v>
       </c>
       <c r="C38" s="49"/>
-      <c r="D38" s="133" t="str">
+      <c r="D38" s="129" t="str">
         <f t="array" ref="D38">_xlfn.IFS(C38&lt;0.5,"朝",AND(C38&lt;22/24),"22前",AND(C38&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E38" s="176"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="48"/>
       <c r="G38" s="50"/>
       <c r="H38" s="51">
@@ -21988,10 +21134,10 @@
         <f t="array" ref="Q38">_xlfn.IFS(D38="朝",,AND(D38="22前",E38&gt;5/24),5/24+1-H38-22/24,AND(D38="22前",E38&lt;5/24),E38+1-H38-22/24,AND(D38="22後",E38&gt;5/24),5/24+1-H38-C38,AND(D38="22後",E38&lt;5/24),E38+1-H38-C38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="122"/>
-    </row>
-    <row r="39" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123">
+      <c r="R38" s="118"/>
+    </row>
+    <row r="39" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="119">
         <f t="shared" si="9"/>
         <v>45504</v>
       </c>
@@ -21999,14 +21145,14 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="139" t="str">
+      <c r="C39" s="134"/>
+      <c r="D39" s="135" t="str">
         <f t="array" ref="D39">_xlfn.IFS(C39&lt;0.5,"朝",AND(C39&lt;22/24),"22前",AND(C39&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E39" s="177"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="141"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="56">
         <v>0</v>
       </c>
@@ -22018,7 +21164,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="134">
+      <c r="K39" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22036,81 +21182,81 @@
         <f t="array" ref="Q39">_xlfn.IFS(D39="朝",,AND(D39="22前",E39&gt;5/24),5/24+1-H39-22/24,AND(D39="22前",E39&lt;5/24),E39+1-H39-22/24,AND(D39="22後",E39&gt;5/24),5/24+1-H39-C39,AND(D39="22後",E39&lt;5/24),E39+1-H39-C39)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="124"/>
-    </row>
-    <row r="40" spans="1:18" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="120" t="s">
+      <c r="R39" s="120"/>
+    </row>
+    <row r="40" spans="1:18" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="120"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="47"/>
-      <c r="D40" s="119" t="str">
+      <c r="D40" s="115" t="str">
         <f t="array" ref="D40">_xlfn.IFS(C40&lt;0.5,"朝",AND(C40&lt;22/24),"22前",AND(C40&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E40" s="142"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="146"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="142"/>
       <c r="H40" s="46" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="I40" s="47" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="L40" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="M40" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="N40" s="126" t="s">
+      <c r="N40" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="O40" s="127" t="s">
+      <c r="O40" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="P40" s="127" t="s">
+      <c r="P40" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q40" s="127" t="s">
+      <c r="Q40" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="128" t="s">
+      <c r="R40" s="124" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="122"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="143"/>
+    <row r="41" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="118"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="139"/>
       <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="147">
+      <c r="G41" s="143">
         <f>COUNTA(C9:C39)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="144">
+      <c r="H41" s="140">
         <f>+SUM(H9:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="131">
+      <c r="I41" s="127">
         <f>SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="132">
+      <c r="J41" s="128">
         <f>SUM(J9:J39)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="132">
+      <c r="K41" s="128">
         <f>SUM(K9:K39)</f>
         <v>0</v>
       </c>
@@ -22138,7 +21284,7 @@
         <f>+SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="122"/>
+      <c r="R41" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22156,7 +21302,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22175,19 +21321,19 @@
       <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="10.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="10.125" style="35" customWidth="1"/>
     <col min="12" max="13" width="10" style="35" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="35" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="35" customWidth="1"/>
     <col min="15" max="15" width="9" style="35" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="35" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="35" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>2024</v>
       </c>
@@ -22212,8 +21358,8 @@
         <v>1.208333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111">
+    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107">
         <f>'[2]0SHEET'!D1</f>
         <v>45474</v>
       </c>
@@ -22223,7 +21369,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -22236,20 +21382,20 @@
       <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="110" t="s">
-        <v>88</v>
+      <c r="I4" s="106" t="s">
+        <v>40</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="M4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="L6" s="20" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L7" s="21">
         <v>0.33333333333333331</v>
       </c>
@@ -22258,11 +21404,11 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+    <row r="8" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="131" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -22278,55 +21424,55 @@
       <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="137" t="s">
+      <c r="H8" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="114" t="s">
+      <c r="I8" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="116" t="s">
+      <c r="N8" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="116" t="s">
+      <c r="P8" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="117" t="s">
+      <c r="Q8" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="113" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118">
+    <row r="9" spans="1:27" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="114">
         <f>A3</f>
         <v>45474</v>
       </c>
-      <c r="B9" s="136" t="str">
+      <c r="B9" s="132" t="str">
         <f t="shared" ref="B9:B39" si="0">TEXT(A9,"aaa")</f>
         <v>月</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="119" t="str" cm="1">
+      <c r="D9" s="115" t="str" cm="1">
         <f t="array" ref="D9">_xlfn.IFS(C9&lt;0.5,"朝",AND(C9&lt;22/24),"22前",AND(C9&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E9" s="175"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="47"/>
       <c r="G9" s="45"/>
       <c r="H9" s="46">
@@ -22369,10 +21515,10 @@
         <f t="array" ref="Q9">_xlfn.IFS(D9="朝",,AND(D9="22前",E9&gt;5/24),5/24+1-H9-22/24,AND(D9="22前",E9&lt;5/24),E9+1-H9-22/24,AND(D9="22後",E9&gt;5/24),5/24+1-H9-C9,AND(D9="22後",E9&lt;5/24),E9+1-H9-C9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="120"/>
-    </row>
-    <row r="10" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121">
+      <c r="R9" s="116"/>
+    </row>
+    <row r="10" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="117">
         <f t="shared" ref="A10:A39" si="9">A9+1</f>
         <v>45475</v>
       </c>
@@ -22381,11 +21527,11 @@
         <v>火</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="119" t="str" cm="1">
+      <c r="D10" s="115" t="str" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(C10&lt;0.5,"朝",AND(C10&lt;22/24),"22前",AND(C10&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E10" s="176"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="48"/>
       <c r="G10" s="50"/>
       <c r="H10" s="51">
@@ -22428,10 +21574,10 @@
         <f t="array" ref="Q10">_xlfn.IFS(D10="朝",,AND(D10="22前",E10&gt;5/24),5/24+1-H10-22/24,AND(D10="22前",E10&lt;5/24),E10+1-H10-22/24,AND(D10="22後",E10&gt;5/24),5/24+1-H10-C10,AND(D10="22後",E10&lt;5/24),E10+1-H10-C10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="122"/>
-    </row>
-    <row r="11" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="121">
+      <c r="R10" s="118"/>
+    </row>
+    <row r="11" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="117">
         <f t="shared" si="9"/>
         <v>45476</v>
       </c>
@@ -22440,11 +21586,11 @@
         <v>水</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="119" t="str" cm="1">
+      <c r="D11" s="115" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(C11&lt;0.5,"朝",AND(C11&lt;22/24),"22前",AND(C11&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E11" s="176"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="48"/>
       <c r="G11" s="50"/>
       <c r="H11" s="51">
@@ -22487,10 +21633,10 @@
         <f t="array" ref="Q11">_xlfn.IFS(D11="朝",,AND(D11="22前",E11&gt;5/24),5/24+1-H11-22/24,AND(D11="22前",E11&lt;5/24),E11+1-H11-22/24,AND(D11="22後",E11&gt;5/24),5/24+1-H11-C11,AND(D11="22後",E11&lt;5/24),E11+1-H11-C11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="122"/>
-    </row>
-    <row r="12" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="121">
+      <c r="R11" s="118"/>
+    </row>
+    <row r="12" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="117">
         <f t="shared" si="9"/>
         <v>45477</v>
       </c>
@@ -22499,11 +21645,11 @@
         <v>木</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="119" t="str" cm="1">
+      <c r="D12" s="115" t="str" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(C12&lt;0.5,"朝",AND(C12&lt;22/24),"22前",AND(C12&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E12" s="176"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="48"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51">
@@ -22546,10 +21692,10 @@
         <f t="array" ref="Q12">_xlfn.IFS(D12="朝",,AND(D12="22前",E12&gt;5/24),5/24+1-H12-22/24,AND(D12="22前",E12&lt;5/24),E12+1-H12-22/24,AND(D12="22後",E12&gt;5/24),5/24+1-H12-C12,AND(D12="22後",E12&lt;5/24),E12+1-H12-C12)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="122"/>
-    </row>
-    <row r="13" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121">
+      <c r="R12" s="118"/>
+    </row>
+    <row r="13" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="117">
         <f t="shared" si="9"/>
         <v>45478</v>
       </c>
@@ -22558,11 +21704,11 @@
         <v>金</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="119" t="str" cm="1">
+      <c r="D13" s="115" t="str" cm="1">
         <f t="array" ref="D13">_xlfn.IFS(C13&lt;0.5,"朝",AND(C13&lt;22/24),"22前",AND(C13&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E13" s="176"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="48"/>
       <c r="G13" s="50"/>
       <c r="H13" s="51">
@@ -22605,10 +21751,10 @@
         <f t="array" ref="Q13">_xlfn.IFS(D13="朝",,AND(D13="22前",E13&gt;5/24),5/24+1-H13-22/24,AND(D13="22前",E13&lt;5/24),E13+1-H13-22/24,AND(D13="22後",E13&gt;5/24),5/24+1-H13-C13,AND(D13="22後",E13&lt;5/24),E13+1-H13-C13)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="122"/>
-    </row>
-    <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121">
+      <c r="R13" s="118"/>
+    </row>
+    <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="117">
         <f t="shared" si="9"/>
         <v>45479</v>
       </c>
@@ -22617,11 +21763,11 @@
         <v>土</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="119" t="str" cm="1">
+      <c r="D14" s="115" t="str" cm="1">
         <f t="array" ref="D14">_xlfn.IFS(C14&lt;0.5,"朝",AND(C14&lt;22/24),"22前",AND(C14&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E14" s="176"/>
+      <c r="E14" s="145"/>
       <c r="F14" s="48"/>
       <c r="G14" s="50"/>
       <c r="H14" s="51">
@@ -22664,10 +21810,10 @@
         <f t="array" ref="Q14">_xlfn.IFS(D14="朝",,AND(D14="22前",E14&gt;5/24),5/24+1-H14-22/24,AND(D14="22前",E14&lt;5/24),E14+1-H14-22/24,AND(D14="22後",E14&gt;5/24),5/24+1-H14-C14,AND(D14="22後",E14&lt;5/24),E14+1-H14-C14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="122"/>
-    </row>
-    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="121">
+      <c r="R14" s="118"/>
+    </row>
+    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="117">
         <f t="shared" si="9"/>
         <v>45480</v>
       </c>
@@ -22676,11 +21822,11 @@
         <v>日</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="119" t="str" cm="1">
+      <c r="D15" s="115" t="str" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(C15&lt;0.5,"朝",AND(C15&lt;22/24),"22前",AND(C15&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E15" s="176"/>
+      <c r="E15" s="145"/>
       <c r="F15" s="48"/>
       <c r="G15" s="50"/>
       <c r="H15" s="51">
@@ -22723,10 +21869,10 @@
         <f t="array" ref="Q15">_xlfn.IFS(D15="朝",,AND(D15="22前",E15&gt;5/24),5/24+1-H15-22/24,AND(D15="22前",E15&lt;5/24),E15+1-H15-22/24,AND(D15="22後",E15&gt;5/24),5/24+1-H15-C15,AND(D15="22後",E15&lt;5/24),E15+1-H15-C15)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="122"/>
-    </row>
-    <row r="16" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121">
+      <c r="R15" s="118"/>
+    </row>
+    <row r="16" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="117">
         <f t="shared" si="9"/>
         <v>45481</v>
       </c>
@@ -22735,11 +21881,11 @@
         <v>月</v>
       </c>
       <c r="C16" s="49"/>
-      <c r="D16" s="119" t="str" cm="1">
+      <c r="D16" s="115" t="str" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(C16&lt;0.5,"朝",AND(C16&lt;22/24),"22前",AND(C16&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E16" s="176"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="48"/>
       <c r="G16" s="50"/>
       <c r="H16" s="51">
@@ -22782,10 +21928,10 @@
         <f t="array" ref="Q16">_xlfn.IFS(D16="朝",,AND(D16="22前",E16&gt;5/24),5/24+1-H16-22/24,AND(D16="22前",E16&lt;5/24),E16+1-H16-22/24,AND(D16="22後",E16&gt;5/24),5/24+1-H16-C16,AND(D16="22後",E16&lt;5/24),E16+1-H16-C16)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="122"/>
-    </row>
-    <row r="17" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121">
+      <c r="R16" s="118"/>
+    </row>
+    <row r="17" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="117">
         <f t="shared" si="9"/>
         <v>45482</v>
       </c>
@@ -22794,11 +21940,11 @@
         <v>火</v>
       </c>
       <c r="C17" s="49"/>
-      <c r="D17" s="119" t="str" cm="1">
+      <c r="D17" s="115" t="str" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(C17&lt;0.5,"朝",AND(C17&lt;22/24),"22前",AND(C17&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E17" s="176"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="48"/>
       <c r="G17" s="50"/>
       <c r="H17" s="51">
@@ -22841,10 +21987,10 @@
         <f t="array" ref="Q17">_xlfn.IFS(D17="朝",,AND(D17="22前",E17&gt;5/24),5/24+1-H17-22/24,AND(D17="22前",E17&lt;5/24),E17+1-H17-22/24,AND(D17="22後",E17&gt;5/24),5/24+1-H17-C17,AND(D17="22後",E17&lt;5/24),E17+1-H17-C17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="122"/>
-    </row>
-    <row r="18" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121">
+      <c r="R17" s="118"/>
+    </row>
+    <row r="18" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="117">
         <f t="shared" si="9"/>
         <v>45483</v>
       </c>
@@ -22853,11 +21999,11 @@
         <v>水</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="D18" s="119" t="str" cm="1">
+      <c r="D18" s="115" t="str" cm="1">
         <f t="array" ref="D18">_xlfn.IFS(C18&lt;0.5,"朝",AND(C18&lt;22/24),"22前",AND(C18&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E18" s="176"/>
+      <c r="E18" s="145"/>
       <c r="F18" s="48"/>
       <c r="G18" s="50"/>
       <c r="H18" s="51">
@@ -22900,10 +22046,10 @@
         <f t="array" ref="Q18">_xlfn.IFS(D18="朝",,AND(D18="22前",E18&gt;5/24),5/24+1-H18-22/24,AND(D18="22前",E18&lt;5/24),E18+1-H18-22/24,AND(D18="22後",E18&gt;5/24),5/24+1-H18-C18,AND(D18="22後",E18&lt;5/24),E18+1-H18-C18)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="122"/>
-    </row>
-    <row r="19" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121">
+      <c r="R18" s="118"/>
+    </row>
+    <row r="19" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="117">
         <f t="shared" si="9"/>
         <v>45484</v>
       </c>
@@ -22912,11 +22058,11 @@
         <v>木</v>
       </c>
       <c r="C19" s="49"/>
-      <c r="D19" s="119" t="str" cm="1">
+      <c r="D19" s="115" t="str" cm="1">
         <f t="array" ref="D19">_xlfn.IFS(C19&lt;0.5,"朝",AND(C19&lt;22/24),"22前",AND(C19&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E19" s="176"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="48"/>
       <c r="G19" s="50"/>
       <c r="H19" s="51">
@@ -22959,10 +22105,10 @@
         <f t="array" ref="Q19">_xlfn.IFS(D19="朝",,AND(D19="22前",E19&gt;5/24),5/24+1-H19-22/24,AND(D19="22前",E19&lt;5/24),E19+1-H19-22/24,AND(D19="22後",E19&gt;5/24),5/24+1-H19-C19,AND(D19="22後",E19&lt;5/24),E19+1-H19-C19)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="122"/>
-    </row>
-    <row r="20" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="121">
+      <c r="R19" s="118"/>
+    </row>
+    <row r="20" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="117">
         <f t="shared" si="9"/>
         <v>45485</v>
       </c>
@@ -22971,11 +22117,11 @@
         <v>金</v>
       </c>
       <c r="C20" s="49"/>
-      <c r="D20" s="119" t="str" cm="1">
+      <c r="D20" s="115" t="str" cm="1">
         <f t="array" ref="D20">_xlfn.IFS(C20&lt;0.5,"朝",AND(C20&lt;22/24),"22前",AND(C20&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E20" s="176"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="48"/>
       <c r="G20" s="50"/>
       <c r="H20" s="51">
@@ -23018,10 +22164,10 @@
         <f t="array" ref="Q20">_xlfn.IFS(D20="朝",,AND(D20="22前",E20&gt;5/24),5/24+1-H20-22/24,AND(D20="22前",E20&lt;5/24),E20+1-H20-22/24,AND(D20="22後",E20&gt;5/24),5/24+1-H20-C20,AND(D20="22後",E20&lt;5/24),E20+1-H20-C20)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="122"/>
-    </row>
-    <row r="21" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121">
+      <c r="R20" s="118"/>
+    </row>
+    <row r="21" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="117">
         <f t="shared" si="9"/>
         <v>45486</v>
       </c>
@@ -23030,11 +22176,11 @@
         <v>土</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="119" t="str" cm="1">
+      <c r="D21" s="115" t="str" cm="1">
         <f t="array" ref="D21">_xlfn.IFS(C21&lt;0.5,"朝",AND(C21&lt;22/24),"22前",AND(C21&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E21" s="176"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="48"/>
       <c r="G21" s="50"/>
       <c r="H21" s="51">
@@ -23077,10 +22223,10 @@
         <f t="array" ref="Q21">_xlfn.IFS(D21="朝",,AND(D21="22前",E21&gt;5/24),5/24+1-H21-22/24,AND(D21="22前",E21&lt;5/24),E21+1-H21-22/24,AND(D21="22後",E21&gt;5/24),5/24+1-H21-C21,AND(D21="22後",E21&lt;5/24),E21+1-H21-C21)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="122"/>
-    </row>
-    <row r="22" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121">
+      <c r="R21" s="118"/>
+    </row>
+    <row r="22" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="117">
         <f t="shared" si="9"/>
         <v>45487</v>
       </c>
@@ -23089,11 +22235,11 @@
         <v>日</v>
       </c>
       <c r="C22" s="49"/>
-      <c r="D22" s="119" t="str" cm="1">
+      <c r="D22" s="115" t="str" cm="1">
         <f t="array" ref="D22">_xlfn.IFS(C22&lt;0.5,"朝",AND(C22&lt;22/24),"22前",AND(C22&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E22" s="176"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="48"/>
       <c r="G22" s="50"/>
       <c r="H22" s="51">
@@ -23136,10 +22282,10 @@
         <f t="array" ref="Q22">_xlfn.IFS(D22="朝",,AND(D22="22前",E22&gt;5/24),5/24+1-H22-22/24,AND(D22="22前",E22&lt;5/24),E22+1-H22-22/24,AND(D22="22後",E22&gt;5/24),5/24+1-H22-C22,AND(D22="22後",E22&lt;5/24),E22+1-H22-C22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="122"/>
-    </row>
-    <row r="23" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121">
+      <c r="R22" s="118"/>
+    </row>
+    <row r="23" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="117">
         <f t="shared" si="9"/>
         <v>45488</v>
       </c>
@@ -23148,11 +22294,11 @@
         <v>月</v>
       </c>
       <c r="C23" s="49"/>
-      <c r="D23" s="119" t="str" cm="1">
+      <c r="D23" s="115" t="str" cm="1">
         <f t="array" ref="D23">_xlfn.IFS(C23&lt;0.5,"朝",AND(C23&lt;22/24),"22前",AND(C23&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E23" s="176"/>
+      <c r="E23" s="145"/>
       <c r="F23" s="48"/>
       <c r="G23" s="50"/>
       <c r="H23" s="51">
@@ -23195,10 +22341,10 @@
         <f t="array" ref="Q23">_xlfn.IFS(D23="朝",,AND(D23="22前",E23&gt;5/24),5/24+1-H23-22/24,AND(D23="22前",E23&lt;5/24),E23+1-H23-22/24,AND(D23="22後",E23&gt;5/24),5/24+1-H23-C23,AND(D23="22後",E23&lt;5/24),E23+1-H23-C23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="122"/>
-    </row>
-    <row r="24" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121">
+      <c r="R23" s="118"/>
+    </row>
+    <row r="24" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="117">
         <f t="shared" si="9"/>
         <v>45489</v>
       </c>
@@ -23207,11 +22353,11 @@
         <v>火</v>
       </c>
       <c r="C24" s="49"/>
-      <c r="D24" s="119" t="str" cm="1">
+      <c r="D24" s="115" t="str" cm="1">
         <f t="array" ref="D24">_xlfn.IFS(C24&lt;0.5,"朝",AND(C24&lt;22/24),"22前",AND(C24&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E24" s="176"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="48"/>
       <c r="G24" s="50"/>
       <c r="H24" s="51">
@@ -23254,10 +22400,10 @@
         <f t="array" ref="Q24">_xlfn.IFS(D24="朝",,AND(D24="22前",E24&gt;5/24),5/24+1-H24-22/24,AND(D24="22前",E24&lt;5/24),E24+1-H24-22/24,AND(D24="22後",E24&gt;5/24),5/24+1-H24-C24,AND(D24="22後",E24&lt;5/24),E24+1-H24-C24)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="122"/>
-    </row>
-    <row r="25" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="121">
+      <c r="R24" s="118"/>
+    </row>
+    <row r="25" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="117">
         <f t="shared" si="9"/>
         <v>45490</v>
       </c>
@@ -23266,11 +22412,11 @@
         <v>水</v>
       </c>
       <c r="C25" s="49"/>
-      <c r="D25" s="119" t="str" cm="1">
+      <c r="D25" s="115" t="str" cm="1">
         <f t="array" ref="D25">_xlfn.IFS(C25&lt;0.5,"朝",AND(C25&lt;22/24),"22前",AND(C25&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E25" s="176"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="48"/>
       <c r="G25" s="50"/>
       <c r="H25" s="51">
@@ -23313,10 +22459,10 @@
         <f t="array" ref="Q25">_xlfn.IFS(D25="朝",,AND(D25="22前",E25&gt;5/24),5/24+1-H25-22/24,AND(D25="22前",E25&lt;5/24),E25+1-H25-22/24,AND(D25="22後",E25&gt;5/24),5/24+1-H25-C25,AND(D25="22後",E25&lt;5/24),E25+1-H25-C25)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="122"/>
-    </row>
-    <row r="26" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121">
+      <c r="R25" s="118"/>
+    </row>
+    <row r="26" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="117">
         <f t="shared" si="9"/>
         <v>45491</v>
       </c>
@@ -23325,11 +22471,11 @@
         <v>木</v>
       </c>
       <c r="C26" s="49"/>
-      <c r="D26" s="119" t="str" cm="1">
+      <c r="D26" s="115" t="str" cm="1">
         <f t="array" ref="D26">_xlfn.IFS(C26&lt;0.5,"朝",AND(C26&lt;22/24),"22前",AND(C26&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E26" s="176"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="48"/>
       <c r="G26" s="50"/>
       <c r="H26" s="51">
@@ -23372,10 +22518,10 @@
         <f t="array" ref="Q26">_xlfn.IFS(D26="朝",,AND(D26="22前",E26&gt;5/24),5/24+1-H26-22/24,AND(D26="22前",E26&lt;5/24),E26+1-H26-22/24,AND(D26="22後",E26&gt;5/24),5/24+1-H26-C26,AND(D26="22後",E26&lt;5/24),E26+1-H26-C26)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="122"/>
-    </row>
-    <row r="27" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="121">
+      <c r="R26" s="118"/>
+    </row>
+    <row r="27" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="117">
         <f t="shared" si="9"/>
         <v>45492</v>
       </c>
@@ -23384,11 +22530,11 @@
         <v>金</v>
       </c>
       <c r="C27" s="49"/>
-      <c r="D27" s="119" t="str" cm="1">
+      <c r="D27" s="115" t="str" cm="1">
         <f t="array" ref="D27">_xlfn.IFS(C27&lt;0.5,"朝",AND(C27&lt;22/24),"22前",AND(C27&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E27" s="176"/>
+      <c r="E27" s="145"/>
       <c r="F27" s="48"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51">
@@ -23431,10 +22577,10 @@
         <f t="array" ref="Q27">_xlfn.IFS(D27="朝",,AND(D27="22前",E27&gt;5/24),5/24+1-H27-22/24,AND(D27="22前",E27&lt;5/24),E27+1-H27-22/24,AND(D27="22後",E27&gt;5/24),5/24+1-H27-C27,AND(D27="22後",E27&lt;5/24),E27+1-H27-C27)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="122"/>
-    </row>
-    <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="121">
+      <c r="R27" s="118"/>
+    </row>
+    <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="117">
         <f t="shared" si="9"/>
         <v>45493</v>
       </c>
@@ -23443,11 +22589,11 @@
         <v>土</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="119" t="str" cm="1">
+      <c r="D28" s="115" t="str" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(C28&lt;0.5,"朝",AND(C28&lt;22/24),"22前",AND(C28&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E28" s="176"/>
+      <c r="E28" s="145"/>
       <c r="F28" s="48"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51">
@@ -23490,10 +22636,10 @@
         <f t="array" ref="Q28">_xlfn.IFS(D28="朝",,AND(D28="22前",E28&gt;5/24),5/24+1-H28-22/24,AND(D28="22前",E28&lt;5/24),E28+1-H28-22/24,AND(D28="22後",E28&gt;5/24),5/24+1-H28-C28,AND(D28="22後",E28&lt;5/24),E28+1-H28-C28)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="122"/>
-    </row>
-    <row r="29" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="121">
+      <c r="R28" s="118"/>
+    </row>
+    <row r="29" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="117">
         <f t="shared" si="9"/>
         <v>45494</v>
       </c>
@@ -23502,11 +22648,11 @@
         <v>日</v>
       </c>
       <c r="C29" s="49"/>
-      <c r="D29" s="119" t="str" cm="1">
+      <c r="D29" s="115" t="str" cm="1">
         <f t="array" ref="D29">_xlfn.IFS(C29&lt;0.5,"朝",AND(C29&lt;22/24),"22前",AND(C29&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E29" s="176"/>
+      <c r="E29" s="145"/>
       <c r="F29" s="48"/>
       <c r="G29" s="50"/>
       <c r="H29" s="51">
@@ -23549,10 +22695,10 @@
         <f t="array" ref="Q29">_xlfn.IFS(D29="朝",,AND(D29="22前",E29&gt;5/24),5/24+1-H29-22/24,AND(D29="22前",E29&lt;5/24),E29+1-H29-22/24,AND(D29="22後",E29&gt;5/24),5/24+1-H29-C29,AND(D29="22後",E29&lt;5/24),E29+1-H29-C29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="122"/>
-    </row>
-    <row r="30" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121">
+      <c r="R29" s="118"/>
+    </row>
+    <row r="30" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="117">
         <f t="shared" si="9"/>
         <v>45495</v>
       </c>
@@ -23561,11 +22707,11 @@
         <v>月</v>
       </c>
       <c r="C30" s="49"/>
-      <c r="D30" s="119" t="str" cm="1">
+      <c r="D30" s="115" t="str" cm="1">
         <f t="array" ref="D30">_xlfn.IFS(C30&lt;0.5,"朝",AND(C30&lt;22/24),"22前",AND(C30&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E30" s="176"/>
+      <c r="E30" s="145"/>
       <c r="F30" s="48"/>
       <c r="G30" s="50"/>
       <c r="H30" s="51">
@@ -23608,10 +22754,10 @@
         <f t="array" ref="Q30">_xlfn.IFS(D30="朝",,AND(D30="22前",E30&gt;5/24),5/24+1-H30-22/24,AND(D30="22前",E30&lt;5/24),E30+1-H30-22/24,AND(D30="22後",E30&gt;5/24),5/24+1-H30-C30,AND(D30="22後",E30&lt;5/24),E30+1-H30-C30)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="122"/>
-    </row>
-    <row r="31" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="121">
+      <c r="R30" s="118"/>
+    </row>
+    <row r="31" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="117">
         <f t="shared" si="9"/>
         <v>45496</v>
       </c>
@@ -23620,11 +22766,11 @@
         <v>火</v>
       </c>
       <c r="C31" s="49"/>
-      <c r="D31" s="119" t="str" cm="1">
+      <c r="D31" s="115" t="str" cm="1">
         <f t="array" ref="D31">_xlfn.IFS(C31&lt;0.5,"朝",AND(C31&lt;22/24),"22前",AND(C31&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E31" s="176"/>
+      <c r="E31" s="145"/>
       <c r="F31" s="48"/>
       <c r="G31" s="50"/>
       <c r="H31" s="51">
@@ -23667,10 +22813,10 @@
         <f t="array" ref="Q31">_xlfn.IFS(D31="朝",,AND(D31="22前",E31&gt;5/24),5/24+1-H31-22/24,AND(D31="22前",E31&lt;5/24),E31+1-H31-22/24,AND(D31="22後",E31&gt;5/24),5/24+1-H31-C31,AND(D31="22後",E31&lt;5/24),E31+1-H31-C31)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="122"/>
-    </row>
-    <row r="32" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="121">
+      <c r="R31" s="118"/>
+    </row>
+    <row r="32" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="117">
         <f t="shared" si="9"/>
         <v>45497</v>
       </c>
@@ -23679,11 +22825,11 @@
         <v>水</v>
       </c>
       <c r="C32" s="49"/>
-      <c r="D32" s="119" t="str" cm="1">
+      <c r="D32" s="115" t="str" cm="1">
         <f t="array" ref="D32">_xlfn.IFS(C32&lt;0.5,"朝",AND(C32&lt;22/24),"22前",AND(C32&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E32" s="176"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="48"/>
       <c r="G32" s="50"/>
       <c r="H32" s="51">
@@ -23726,10 +22872,10 @@
         <f t="array" ref="Q32">_xlfn.IFS(D32="朝",,AND(D32="22前",E32&gt;5/24),5/24+1-H32-22/24,AND(D32="22前",E32&lt;5/24),E32+1-H32-22/24,AND(D32="22後",E32&gt;5/24),5/24+1-H32-C32,AND(D32="22後",E32&lt;5/24),E32+1-H32-C32)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="122"/>
-    </row>
-    <row r="33" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="121">
+      <c r="R32" s="118"/>
+    </row>
+    <row r="33" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="117">
         <f t="shared" si="9"/>
         <v>45498</v>
       </c>
@@ -23738,11 +22884,11 @@
         <v>木</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="119" t="str" cm="1">
+      <c r="D33" s="115" t="str" cm="1">
         <f t="array" ref="D33">_xlfn.IFS(C33&lt;0.5,"朝",AND(C33&lt;22/24),"22前",AND(C33&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E33" s="176"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="48"/>
       <c r="G33" s="50"/>
       <c r="H33" s="51">
@@ -23785,10 +22931,10 @@
         <f t="array" ref="Q33">_xlfn.IFS(D33="朝",,AND(D33="22前",E33&gt;5/24),5/24+1-H33-22/24,AND(D33="22前",E33&lt;5/24),E33+1-H33-22/24,AND(D33="22後",E33&gt;5/24),5/24+1-H33-C33,AND(D33="22後",E33&lt;5/24),E33+1-H33-C33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="122"/>
-    </row>
-    <row r="34" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="121">
+      <c r="R33" s="118"/>
+    </row>
+    <row r="34" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="117">
         <f t="shared" si="9"/>
         <v>45499</v>
       </c>
@@ -23797,11 +22943,11 @@
         <v>金</v>
       </c>
       <c r="C34" s="49"/>
-      <c r="D34" s="119" t="str" cm="1">
+      <c r="D34" s="115" t="str" cm="1">
         <f t="array" ref="D34">_xlfn.IFS(C34&lt;0.5,"朝",AND(C34&lt;22/24),"22前",AND(C34&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E34" s="176"/>
+      <c r="E34" s="145"/>
       <c r="F34" s="48"/>
       <c r="G34" s="50"/>
       <c r="H34" s="51">
@@ -23844,10 +22990,10 @@
         <f t="array" ref="Q34">_xlfn.IFS(D34="朝",,AND(D34="22前",E34&gt;5/24),5/24+1-H34-22/24,AND(D34="22前",E34&lt;5/24),E34+1-H34-22/24,AND(D34="22後",E34&gt;5/24),5/24+1-H34-C34,AND(D34="22後",E34&lt;5/24),E34+1-H34-C34)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="122"/>
-    </row>
-    <row r="35" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="121">
+      <c r="R34" s="118"/>
+    </row>
+    <row r="35" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="117">
         <f t="shared" si="9"/>
         <v>45500</v>
       </c>
@@ -23856,11 +23002,11 @@
         <v>土</v>
       </c>
       <c r="C35" s="49"/>
-      <c r="D35" s="119" t="str" cm="1">
+      <c r="D35" s="115" t="str" cm="1">
         <f t="array" ref="D35">_xlfn.IFS(C35&lt;0.5,"朝",AND(C35&lt;22/24),"22前",AND(C35&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E35" s="176"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="48"/>
       <c r="G35" s="50"/>
       <c r="H35" s="51">
@@ -23903,10 +23049,10 @@
         <f t="array" ref="Q35">_xlfn.IFS(D35="朝",,AND(D35="22前",E35&gt;5/24),5/24+1-H35-22/24,AND(D35="22前",E35&lt;5/24),E35+1-H35-22/24,AND(D35="22後",E35&gt;5/24),5/24+1-H35-C35,AND(D35="22後",E35&lt;5/24),E35+1-H35-C35)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="122"/>
-    </row>
-    <row r="36" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="121">
+      <c r="R35" s="118"/>
+    </row>
+    <row r="36" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="117">
         <f t="shared" si="9"/>
         <v>45501</v>
       </c>
@@ -23915,11 +23061,11 @@
         <v>日</v>
       </c>
       <c r="C36" s="49"/>
-      <c r="D36" s="119" t="str" cm="1">
+      <c r="D36" s="115" t="str" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(C36&lt;0.5,"朝",AND(C36&lt;22/24),"22前",AND(C36&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E36" s="176"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="48"/>
       <c r="G36" s="50"/>
       <c r="H36" s="51">
@@ -23962,10 +23108,10 @@
         <f t="array" ref="Q36">_xlfn.IFS(D36="朝",,AND(D36="22前",E36&gt;5/24),5/24+1-H36-22/24,AND(D36="22前",E36&lt;5/24),E36+1-H36-22/24,AND(D36="22後",E36&gt;5/24),5/24+1-H36-C36,AND(D36="22後",E36&lt;5/24),E36+1-H36-C36)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="122"/>
-    </row>
-    <row r="37" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="121">
+      <c r="R36" s="118"/>
+    </row>
+    <row r="37" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="117">
         <f t="shared" si="9"/>
         <v>45502</v>
       </c>
@@ -23974,11 +23120,11 @@
         <v>月</v>
       </c>
       <c r="C37" s="49"/>
-      <c r="D37" s="119" t="str" cm="1">
+      <c r="D37" s="115" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(C37&lt;0.5,"朝",AND(C37&lt;22/24),"22前",AND(C37&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E37" s="176"/>
+      <c r="E37" s="145"/>
       <c r="F37" s="48"/>
       <c r="G37" s="50"/>
       <c r="H37" s="51">
@@ -24021,10 +23167,10 @@
         <f t="array" ref="Q37">_xlfn.IFS(D37="朝",,AND(D37="22前",E37&gt;5/24),5/24+1-H37-22/24,AND(D37="22前",E37&lt;5/24),E37+1-H37-22/24,AND(D37="22後",E37&gt;5/24),5/24+1-H37-C37,AND(D37="22後",E37&lt;5/24),E37+1-H37-C37)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="122"/>
-    </row>
-    <row r="38" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="121">
+      <c r="R37" s="118"/>
+    </row>
+    <row r="38" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="117">
         <f t="shared" si="9"/>
         <v>45503</v>
       </c>
@@ -24033,11 +23179,11 @@
         <v>火</v>
       </c>
       <c r="C38" s="49"/>
-      <c r="D38" s="133" t="str" cm="1">
+      <c r="D38" s="129" t="str" cm="1">
         <f t="array" ref="D38">_xlfn.IFS(C38&lt;0.5,"朝",AND(C38&lt;22/24),"22前",AND(C38&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E38" s="176"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="48"/>
       <c r="G38" s="50"/>
       <c r="H38" s="51">
@@ -24074,10 +23220,10 @@
         <f t="array" ref="Q38">_xlfn.IFS(D38="朝",,AND(D38="22前",E38&gt;5/24),5/24+1-H38-22/24,AND(D38="22前",E38&lt;5/24),E38+1-H38-22/24,AND(D38="22後",E38&gt;5/24),5/24+1-H38-C38,AND(D38="22後",E38&lt;5/24),E38+1-H38-C38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="122"/>
-    </row>
-    <row r="39" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123">
+      <c r="R38" s="118"/>
+    </row>
+    <row r="39" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="119">
         <f t="shared" si="9"/>
         <v>45504</v>
       </c>
@@ -24085,14 +23231,14 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="139" t="str" cm="1">
+      <c r="C39" s="134"/>
+      <c r="D39" s="135" t="str" cm="1">
         <f t="array" ref="D39">_xlfn.IFS(C39&lt;0.5,"朝",AND(C39&lt;22/24),"22前",AND(C39&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
-      <c r="E39" s="177"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="141"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="56">
         <v>0</v>
       </c>
@@ -24104,7 +23250,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="134">
+      <c r="K39" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -24122,15 +23268,15 @@
         <f t="array" ref="Q39">_xlfn.IFS(D39="朝",,AND(D39="22前",E39&gt;5/24),5/24+1-H39-22/24,AND(D39="22前",E39&lt;5/24),E39+1-H39-22/24,AND(D39="22後",E39&gt;5/24),5/24+1-H39-C39,AND(D39="22後",E39&lt;5/24),E39+1-H39-C39)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="124"/>
-    </row>
-    <row r="40" spans="1:18" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="120" t="s">
+      <c r="R39" s="120"/>
+    </row>
+    <row r="40" spans="1:18" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="120"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="47"/>
-      <c r="D40" s="119" t="str" cm="1">
+      <c r="D40" s="115" t="str" cm="1">
         <f t="array" ref="D40">_xlfn.IFS(C40&lt;0.5,"朝",AND(C40&lt;22/24),"22前",AND(C40&gt;=22/24),"22後")</f>
         <v>朝</v>
       </c>
@@ -24150,55 +23296,55 @@
         <v>0</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="L40" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="M40" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="N40" s="126" t="s">
+      <c r="N40" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="O40" s="127" t="s">
+      <c r="O40" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="P40" s="127" t="s">
+      <c r="P40" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q40" s="127" t="s">
+      <c r="Q40" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="128" t="s">
+      <c r="R40" s="124" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="122"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122" t="s">
+    <row r="41" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="118"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="129">
+      <c r="G41" s="125">
         <f>COUNTA(C9:C39)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="130" t="s">
+      <c r="H41" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="131">
+      <c r="I41" s="127">
         <f>SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="132">
+      <c r="J41" s="128">
         <f>SUM(J9:J39)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="132">
+      <c r="K41" s="128">
         <f>SUM(K9:K39)</f>
         <v>0</v>
       </c>
@@ -24226,7 +23372,7 @@
         <f>+SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="122"/>
+      <c r="R41" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
